--- a/AfDD_DDAf_2023_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2023_TabIndsCodes.xlsx
@@ -2985,9 +2985,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/AfDD_DDAf_2023_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2023_TabIndsCodes.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C767834-99CC-482E-B51E-ACBF5C9B2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B531F3C-C09B-4A62-90F7-80D941CE6C54}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$368</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1154">
   <si>
     <t>IndCode</t>
   </si>
@@ -87,6 +99,15 @@
     <t>Emploi en % de la population âgée de 15 ans et plus</t>
   </si>
   <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Inflation, average consumer prices</t>
+  </si>
+  <si>
+    <t>Inflation, prix moyens à la consommation</t>
+  </si>
+  <si>
     <t>GINI</t>
   </si>
   <si>
@@ -96,13 +117,13 @@
     <t>Coefficient de Gini (estimations de la Banque Mondiale)</t>
   </si>
   <si>
-    <t>PovHC190</t>
-  </si>
-  <si>
-    <t>% of population in extreme poverty ($1.90 a day)</t>
-  </si>
-  <si>
-    <t>% de la population en extrême pauvreté ($1.90 par jour)</t>
+    <t>PovHC215</t>
+  </si>
+  <si>
+    <t>% of population in extreme poverty ($2.15 a day)</t>
+  </si>
+  <si>
+    <t>% de la population en extrême pauvreté ($2.15 par jour)</t>
   </si>
   <si>
     <t>HDI</t>
@@ -306,7 +327,7 @@
     <t>WittMedPrim15PL</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (medium scenario) </t>
+    <t>Percentage of population 15+ with primary but not secondary education (medium scenario)</t>
   </si>
   <si>
     <t>Pourcentage de la population de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
@@ -333,7 +354,7 @@
     <t>WittAcclPrim15PL</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (accelerated scenario) </t>
+    <t>Percentage of population 15+ with primary but not secondary education (accelerated scenario)</t>
   </si>
   <si>
     <t>Pourcentage de la population âgée de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
@@ -351,7 +372,7 @@
     <t>WittMedLowEd1529</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (medium scenario) </t>
+    <t>Percentage of population aged 15-29 with less than primary education (medium scenario)</t>
   </si>
   <si>
     <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen)</t>
@@ -369,7 +390,7 @@
     <t>WittMedScndPL1529</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (medium scenario) </t>
+    <t>Percentage of population aged 15-29 with at least secondary education (medium scenario)</t>
   </si>
   <si>
     <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen)</t>
@@ -378,7 +399,7 @@
     <t>WittAcclLowEd1529</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (accelerated scenario) </t>
+    <t>Percentage of population aged 15-29 with less than primary education (accelerated scenario)</t>
   </si>
   <si>
     <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario accéléré)</t>
@@ -396,7 +417,7 @@
     <t>WittAcclScndPL1529</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (accelerated scenario) </t>
+    <t>Percentage of population aged 15-29 with at least secondary education (accelerated scenario)</t>
   </si>
   <si>
     <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario accéléré)</t>
@@ -591,22 +612,22 @@
     <t>Emploi dans le secteur manufacturier (y compris dans l'industrie) en % du total</t>
   </si>
   <si>
-    <t>PovHC320</t>
-  </si>
-  <si>
-    <t>% of population below LMIC poverty rates ($3.20 a day)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
-  </si>
-  <si>
-    <t>PovHC550</t>
-  </si>
-  <si>
-    <t>% of population below UMIC poverty rates ($5.50 a day)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous 3.20 USD par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
+    <t>PovHC365</t>
+  </si>
+  <si>
+    <t>% of population below LMIC poverty rates ($3.65 a day)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous $3.65 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure</t>
+  </si>
+  <si>
+    <t>PovHC685</t>
+  </si>
+  <si>
+    <t>% of population below UMIC poverty rates ($6.85 a day)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous $6.85 par jour, le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure</t>
   </si>
   <si>
     <t>ShareTop20</t>
@@ -675,10 +696,10 @@
     <t>OutputPerWrkPPP</t>
   </si>
   <si>
-    <t>Output per worker (GDP constant 2011 international $ in PPP)</t>
-  </si>
-  <si>
-    <t>Production par travailleur (PIB en dollars internationaux constants de 2011 en PPA)</t>
+    <t>Output per worker (GDP constant 2017 international $ in PPP)</t>
+  </si>
+  <si>
+    <t>Production par travailleur (PIB en dollars internationaux constants de 2017 en PPA)</t>
   </si>
   <si>
     <t>GDI</t>
@@ -726,6 +747,15 @@
     <t>Atteintes à l'intégrité physique (sous-indice SIGI)</t>
   </si>
   <si>
+    <t>SIGIRES</t>
+  </si>
+  <si>
+    <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
+  </si>
+  <si>
+    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI)</t>
+  </si>
+  <si>
     <t>SIGICIV</t>
   </si>
   <si>
@@ -735,15 +765,6 @@
     <t>Atteintes aux libertés civiles (sous-indice SIGI)</t>
   </si>
   <si>
-    <t>SIGIRES</t>
-  </si>
-  <si>
-    <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
-  </si>
-  <si>
-    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI)</t>
-  </si>
-  <si>
     <t>IntntSubsPer100</t>
   </si>
   <si>
@@ -894,7 +915,7 @@
     <t>Total exports of ICT services, millions of USD</t>
   </si>
   <si>
-    <t>Exportations totales de services TIC, millions USD</t>
+    <t>Exportations totales de services TIC, millions de dollars US</t>
   </si>
   <si>
     <t>ExpICTSrvPrp</t>
@@ -912,7 +933,7 @@
     <t>Total exports of digital services, millions of USD</t>
   </si>
   <si>
-    <t>Exportations totales de services numériques, millions USD</t>
+    <t>Exportations totales de services numériques, millions de dollars US</t>
   </si>
   <si>
     <t>ExpDigSrvPrp</t>
@@ -1059,61 +1080,25 @@
     <t>CnsExp</t>
   </si>
   <si>
-    <t>Final consumption expenditure (% of GDP)</t>
+    <t>Final consumption expenditure as a % of GDP</t>
   </si>
   <si>
     <t>Dépense de consommation finale</t>
   </si>
   <si>
-    <t>CnsExpPub</t>
-  </si>
-  <si>
-    <t>Final consumption expenditure (public, % of GDP)</t>
-  </si>
-  <si>
-    <t>Dépense de consommation finale (publique)</t>
-  </si>
-  <si>
-    <t>CnsExpPrv</t>
-  </si>
-  <si>
-    <t>Final consumption expenditure (private, % of GDP)</t>
-  </si>
-  <si>
-    <t>Dépense de consommation finale (privée)</t>
-  </si>
-  <si>
     <t>GFCF</t>
   </si>
   <si>
-    <t>Gross fixed capital formation (% of GDP)</t>
+    <t>Gross fixed capital formation as a % of GDP</t>
   </si>
   <si>
     <t>Formation brute de capital fixe</t>
   </si>
   <si>
-    <t>GFCFPub</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation (public, % of GDP)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe (public)</t>
-  </si>
-  <si>
-    <t>GFCFPrv</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation (private, % of GDP)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe (privé)</t>
-  </si>
-  <si>
     <t>InvChg</t>
   </si>
   <si>
-    <t>Changes in inventories (% of GDP)</t>
+    <t>Changes in inventories as a % of GDP</t>
   </si>
   <si>
     <t>Variations des stocks</t>
@@ -1122,7 +1107,7 @@
     <t>FrgnBal</t>
   </si>
   <si>
-    <t>Foreign balance (% of GDP)</t>
+    <t>Foreign balance as a % of GDP</t>
   </si>
   <si>
     <t>Balance extérieur</t>
@@ -1131,7 +1116,7 @@
     <t>ImpGdsSrv</t>
   </si>
   <si>
-    <t>Imports of goods and services (% of GDP)</t>
+    <t>Imports of goods and services as a % of GDP</t>
   </si>
   <si>
     <t>Importations de biens et services</t>
@@ -1140,7 +1125,7 @@
     <t>ExpGdsSrv</t>
   </si>
   <si>
-    <t>Exports of goods and services (% of GDP)</t>
+    <t>Exports of goods and services as a % of GDP</t>
   </si>
   <si>
     <t>Exportations de biens et services</t>
@@ -1149,55 +1134,55 @@
     <t>GrthDCmpNC</t>
   </si>
   <si>
-    <t>Final consumption expenditure (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Dépense de consommation finale (% de croissance du PIB)</t>
+    <t>Final consumption expenditure (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Dépense de consommation finale (% de la croissance du PIB sur 5 ans)</t>
   </si>
   <si>
     <t>GrthDCmpNFI</t>
   </si>
   <si>
-    <t>Gross fixed capital formation (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe (% de croissance du PIB)</t>
+    <t>Gross fixed capital formation (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Formation brute de capital fixe (% de la croissance du PIB sur 5 ans)</t>
   </si>
   <si>
     <t>GrthDCmpNINV</t>
   </si>
   <si>
-    <t>Changes in inventories (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Variations des stocks (% de croissance du PIB)</t>
+    <t>Changes in inventories (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Variations des stocks (% de la croissance du PIB sur 5 ans)</t>
+  </si>
+  <si>
+    <t>GrthDCmpNFB</t>
+  </si>
+  <si>
+    <t>Foreign balance (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Solde extérieure (% de la croissance du PIB sur 5 ans)</t>
   </si>
   <si>
     <t>GrthDCmpNM</t>
   </si>
   <si>
-    <t>Imports of goods and services (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Importations de biens et services (% de croissance du PIB)</t>
+    <t>Imports of goods and services (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Importations de biens et services (% de la croissance du PIB sur 5 ans)</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
   </si>
   <si>
-    <t>Exports of goods and services (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Exportations de biens et services (% de croissance du PIB)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFB</t>
-  </si>
-  <si>
-    <t>Foreign balance (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Balance extérieure (% de croissance du PIB)</t>
+    <t>Exports of goods and services (% of 5-year GDP growth)</t>
+  </si>
+  <si>
+    <t>Exportations de biens et services (% de la croissance du PIB sur 5 ans)</t>
   </si>
   <si>
     <t>GovRevPerGDP</t>
@@ -1218,7 +1203,7 @@
     <t>Impôts des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GrantsPerGDP</t>
+    <t>GovGrantsPerGDP</t>
   </si>
   <si>
     <t>General government revenue, grants as a % of GDP</t>
@@ -1227,7 +1212,7 @@
     <t>Recettes des administrations publiques, dons en % du PIB</t>
   </si>
   <si>
-    <t>ExpendPerGDP</t>
+    <t>GovExpendPerGDP</t>
   </si>
   <si>
     <t>General government expenditure as a % of GDP</t>
@@ -1236,7 +1221,7 @@
     <t>Total des dépenses des administrations publiques en % du PIB</t>
   </si>
   <si>
-    <t>GrossDebtPerGDP</t>
+    <t>GovGrossDebtPerGDP</t>
   </si>
   <si>
     <t>General government gross debt as a % of GDP</t>
@@ -1245,13 +1230,58 @@
     <t>Dette brute des administrations publiques en % du PIB</t>
   </si>
   <si>
+    <t>GovRevUSD</t>
+  </si>
+  <si>
+    <t>General government revenue (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Recettes des administrations publiques (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>TaxUSD</t>
+  </si>
+  <si>
+    <t>General government taxes (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Impôts des administrations publiques (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>GovGrantsUSD</t>
+  </si>
+  <si>
+    <t>General government revenue, grants (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Recettes des administrations publiques, dons (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>GovExpendUSD</t>
+  </si>
+  <si>
+    <t>General government expenditure (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Total des dépenses des administrations publiques (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>GovGrossDebtUSD</t>
+  </si>
+  <si>
+    <t>General government gross debt (millions of USD), 2021</t>
+  </si>
+  <si>
+    <t>Dette brute des administrations publiques (millions de dollars US)</t>
+  </si>
+  <si>
     <t>ExpUnproc</t>
   </si>
   <si>
     <t>Total exports of unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits non transformés (millions USD)</t>
+    <t>Exportations totales de produits non transformés (millions de dollars US)</t>
   </si>
   <si>
     <t>ExpSemiProc</t>
@@ -1260,7 +1290,7 @@
     <t>Total exports of semi-processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits semi-transformés (millions USD)</t>
+    <t>Exportations totales de produits semi-transformés (millions de dollars US)</t>
   </si>
   <si>
     <t>ExpFullyProc</t>
@@ -1269,7 +1299,7 @@
     <t>Total exports of fully processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits transformés (millions USD)</t>
+    <t>Exportations totales de produits transformés (millions de dollars US)</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -1278,7 +1308,7 @@
     <t>Total exports of processed and unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Exportations totales de produits transformés et non transformés (millions USD)</t>
+    <t>Exportations totales de produits transformés et non transformés (millions de dollars US)</t>
   </si>
   <si>
     <t>ImpUnproc</t>
@@ -1326,6 +1356,15 @@
     <t>Catégorie de produits avec la plus grande part des exportations totales</t>
   </si>
   <si>
+    <t>ExpProdPct1</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le plus haut niveau d'exportations</t>
+  </si>
+  <si>
     <t>ExpProd2</t>
   </si>
   <si>
@@ -1335,6 +1374,15 @@
     <t>Catégorie de produits constituant la deuxième plus grande % des exportations totales</t>
   </si>
   <si>
+    <t>ExpProdPct2</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the second highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le deuxième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
     <t>ExpProd3</t>
   </si>
   <si>
@@ -1344,6 +1392,15 @@
     <t>Catégorie de produits constituant la troisième plus grande % des exportations totales</t>
   </si>
   <si>
+    <t>ExpProdPct3</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the third highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le troisième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
     <t>ExpProd4</t>
   </si>
   <si>
@@ -1353,6 +1410,15 @@
     <t>Catégorie de produits constituant la quatrième plus grande % des exportations totales</t>
   </si>
   <si>
+    <t>ExpProdPct4</t>
+  </si>
+  <si>
+    <t>% of exports ascribed to 4-digit HS96 product category with the fourth highest level of exports</t>
+  </si>
+  <si>
+    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le quatrième niveau d'exportations le plus élevé</t>
+  </si>
+  <si>
     <t>ExpProd5</t>
   </si>
   <si>
@@ -1362,42 +1428,6 @@
     <t>Catégorie de produits constituant la cinquième plus grande % des exportations totales</t>
   </si>
   <si>
-    <t>ExpProdPct1</t>
-  </si>
-  <si>
-    <t>% of exports ascribed to 4-digit HS96 product category with highest level of exports</t>
-  </si>
-  <si>
-    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le plus haut niveau d'exportations</t>
-  </si>
-  <si>
-    <t>ExpProdPct2</t>
-  </si>
-  <si>
-    <t>% of exports ascribed to 4-digit HS96 product category with the second highest level of exports</t>
-  </si>
-  <si>
-    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le deuxième niveau d'exportations le plus élevé</t>
-  </si>
-  <si>
-    <t>ExpProdPct3</t>
-  </si>
-  <si>
-    <t>% of exports ascribed to 4-digit HS96 product category with the third highest level of exports</t>
-  </si>
-  <si>
-    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le troisième niveau d'exportations le plus élevé</t>
-  </si>
-  <si>
-    <t>ExpProdPct4</t>
-  </si>
-  <si>
-    <t>% of exports ascribed to 4-digit HS96 product category with the fourth highest level of exports</t>
-  </si>
-  <si>
-    <t>% des exportations attribuées à la catégorie de produits SH96 à 4 chiffres avec le quatrième niveau d'exportations le plus élevé</t>
-  </si>
-  <si>
     <t>ExpProdPct5</t>
   </si>
   <si>
@@ -1491,7 +1521,7 @@
     <t>RECImpPct</t>
   </si>
   <si>
-    <t>Imports to countries in same REC, as a % of total imports</t>
+    <t>Imports from countries in same REC, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant des pays de la même CER, en % du total des importations</t>
@@ -1500,7 +1530,7 @@
     <t>AUCRegImpPct</t>
   </si>
   <si>
-    <t>Imports to countries in same AUC Region, as a % of total imports</t>
+    <t>Imports from countries in same AUC Region, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant des pays de la même région de la CUA, en % du total des importations</t>
@@ -1509,7 +1539,7 @@
     <t>ContImpPct</t>
   </si>
   <si>
-    <t>Imports to countries in same continent, as a % of total imports</t>
+    <t>Imports from countries in same continent, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant des pays du même continent, en % du total des importations</t>
@@ -1518,7 +1548,7 @@
     <t>CHNImpPct</t>
   </si>
   <si>
-    <t>Imports to China, as a % of total imports</t>
+    <t>Imports from China, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant de la Chine, en % du total des importations</t>
@@ -1527,7 +1557,7 @@
     <t>EUImpPct</t>
   </si>
   <si>
-    <t>Imports to EU countries, as a % of total imports</t>
+    <t>Imports from EU countries, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant des pays de l'UE, en % du total des importations</t>
@@ -1536,7 +1566,7 @@
     <t>USAImpPct</t>
   </si>
   <si>
-    <t>Imports to USA, as a % of total imports</t>
+    <t>Imports from USA, as a % of total imports</t>
   </si>
   <si>
     <t>Importations provenant des États-Unis, en % du total des importations</t>
@@ -1569,6 +1599,24 @@
     <t>Commerce intra-continental de biens intermédiaires en % du total des échanges de biens intermédiaires</t>
   </si>
   <si>
+    <t>IMFFDIPGD</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows as a % of GDP - asset/liability IMF data</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB - Données actif/passif du FMI</t>
+  </si>
+  <si>
+    <t>UNCTADFDIPGD</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB</t>
+  </si>
+  <si>
     <t>PortfolioInFlPGD</t>
   </si>
   <si>
@@ -1578,6 +1626,15 @@
     <t>Entrées des investissements de portefeuille en % du PIB</t>
   </si>
   <si>
+    <t>OtherInFlPGD</t>
+  </si>
+  <si>
+    <t>Financial Account, Other Investment, Net Incurrence of Liabilities as a % of GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compte financier, autres investissements, accroissement net des passifs en % du PIB </t>
+  </si>
+  <si>
     <t>ODAPGD</t>
   </si>
   <si>
@@ -1587,15 +1644,6 @@
     <t>Entrées nettes d'aide publique au développement (APD) en % du PIB</t>
   </si>
   <si>
-    <t>UNCTADFDIPGD</t>
-  </si>
-  <si>
-    <t>Foreign Direct Investment (FDI) inflows as a % of GDP</t>
-  </si>
-  <si>
-    <t>Entrées d’investissements directs étrangers (IDE) en % du PIB</t>
-  </si>
-  <si>
     <t>RemitPGD</t>
   </si>
   <si>
@@ -1614,13 +1662,22 @@
     <t>Entrées financières totales en % du PIB</t>
   </si>
   <si>
-    <t>GrNatSavPrvPGD</t>
-  </si>
-  <si>
-    <t>Gross private saving as a % of GDP</t>
-  </si>
-  <si>
-    <t>Épargne privée brute en % du PIB</t>
+    <t>IMFFDI</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows (millions of USD) - asset/liability IMF data</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions de dollars US) - Données actif/passif du FMI</t>
+  </si>
+  <si>
+    <t>UNCTADFDI</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment (FDI) inflows (millions of USD)</t>
+  </si>
+  <si>
+    <t>Entrées d’investissements directs étrangers (IDE) (millions de dollars US)</t>
   </si>
   <si>
     <t>PortfolioInFl</t>
@@ -1629,7 +1686,16 @@
     <t>Portfolio investment inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées des investissements de portefeuille (millions USD)</t>
+    <t>Entrées des investissements de portefeuille (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>OtherInFl</t>
+  </si>
+  <si>
+    <t>Financial Account, Other Investment, Net Incurrence of Liabilities, US Dollars</t>
+  </si>
+  <si>
+    <t>Compte financier, Autres investissements, Accroissement net des passifs, millions de dollars US</t>
   </si>
   <si>
     <t>ODA</t>
@@ -1638,16 +1704,7 @@
     <t>Net Official Development Assistance (ODA) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées nettes d'aide publique au développement (APD) (millions USD)</t>
-  </si>
-  <si>
-    <t>UNCTADFDI</t>
-  </si>
-  <si>
-    <t>Foreign Direct Investment (FDI) inflows (millions of USD)</t>
-  </si>
-  <si>
-    <t>Entrées d’investissements directs étrangers (IDE) (millions USD)</t>
+    <t>Entrées nettes d'aide publique au développement (APD) (millions de dollars US)</t>
   </si>
   <si>
     <t>Remit</t>
@@ -1656,7 +1713,7 @@
     <t>Remittances inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées de transferts des migrants (millions USD)</t>
+    <t>Entrées de transferts des migrants (millions de dollars US)</t>
   </si>
   <si>
     <t>TotalFinInflows</t>
@@ -1665,16 +1722,205 @@
     <t>Total financial inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Entrées financières totales (millions USD)</t>
-  </si>
-  <si>
-    <t>GrNatSavPrv</t>
-  </si>
-  <si>
-    <t>Gross private saving (millions of USD)</t>
-  </si>
-  <si>
-    <t>Épargne privée brute (millions USD)</t>
+    <t>Entrées financières totales (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>IGOVPGD</t>
+  </si>
+  <si>
+    <t>General government investment (gross fixed capital formation) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Investissement des administrations publiques (formation brute de capital fixe) en % du PIB</t>
+  </si>
+  <si>
+    <t>IPPPPGD</t>
+  </si>
+  <si>
+    <t>Public-private partnership (PPP) investment as a % of GDP</t>
+  </si>
+  <si>
+    <t>Investissements dans les partenariats public-privé (PPP) en % du PIB</t>
+  </si>
+  <si>
+    <t>IPRIVPGD</t>
+  </si>
+  <si>
+    <t>Private investment (gross fixed capital formation) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Investissement privé (formation brute de capital fixe) en % du PIB</t>
+  </si>
+  <si>
+    <t>KGOVPGD</t>
+  </si>
+  <si>
+    <t>General government capital stock as a % of GDP</t>
+  </si>
+  <si>
+    <t>Stock de capital des administrations publiques en % du PIB</t>
+  </si>
+  <si>
+    <t>KPPPPGD</t>
+  </si>
+  <si>
+    <t>Public-private partnership (PPP) capital stock as a % of GDP</t>
+  </si>
+  <si>
+    <t>Stock de capital des partenariats public-privé (PPP) en % du PIB</t>
+  </si>
+  <si>
+    <t>KPRIVPGD</t>
+  </si>
+  <si>
+    <t>Private capital stock as a % of GDP</t>
+  </si>
+  <si>
+    <t>Stock de capital privé en % du PIB</t>
+  </si>
+  <si>
+    <t>IGOVUSD</t>
+  </si>
+  <si>
+    <t>General government investment (gross fixed capital formation) (millions of USD)</t>
+  </si>
+  <si>
+    <t>Investissement des administrations publiques (formation brute de capital fixe) (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>IPPPUSD</t>
+  </si>
+  <si>
+    <t>Public-private partnership (PPP) investment (millions of USD)</t>
+  </si>
+  <si>
+    <t>Investissement en partenariat public-privé (PPP) (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>IPRIVUSD</t>
+  </si>
+  <si>
+    <t>Private investment (gross fixed capital formation) (millions of USD)</t>
+  </si>
+  <si>
+    <t>Investissement privé (formation brute de capital fixe) (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>KGOVUSD</t>
+  </si>
+  <si>
+    <t>General government capital stock (millions of USD)</t>
+  </si>
+  <si>
+    <t>Stock de capital des administrations publiques (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>KPPPUSD</t>
+  </si>
+  <si>
+    <t>Public-private partnership (PPP) capital stock (millions of USD)</t>
+  </si>
+  <si>
+    <t>Stock de capital du partenariat public-privé (PPP) (millions de dollars)</t>
+  </si>
+  <si>
+    <t>KPRIVUSD</t>
+  </si>
+  <si>
+    <t>Private capital stock (millions of USD)</t>
+  </si>
+  <si>
+    <t>Stock de capital privé (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>DILiabPGD</t>
+  </si>
+  <si>
+    <t>Direct Investment Liabilities as a % of GDP</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct en % du PIB</t>
+  </si>
+  <si>
+    <t>DIDebitPGD</t>
+  </si>
+  <si>
+    <t>Direct Investment Debit as a % of GDP</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct en % du PIB</t>
+  </si>
+  <si>
+    <t>DIAssetPGD</t>
+  </si>
+  <si>
+    <t>Direct Investment Assets as a % of GDP</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct en % du PIB</t>
+  </si>
+  <si>
+    <t>DICredPGD</t>
+  </si>
+  <si>
+    <t>Direct Investment Credit as a % of GDP</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct en % du PIB</t>
+  </si>
+  <si>
+    <t>DILiabUSD</t>
+  </si>
+  <si>
+    <t>Direct Investment Liabilities, millions of USD</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct, millions de dollars US</t>
+  </si>
+  <si>
+    <t>DIDebitUSD</t>
+  </si>
+  <si>
+    <t>Direct Investment Debit, millions of USD</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct, millions de dollars US</t>
+  </si>
+  <si>
+    <t>DIAssetUSD</t>
+  </si>
+  <si>
+    <t>Direct Investment Assets, millions of USD</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct, millions de dollars US</t>
+  </si>
+  <si>
+    <t>DICredUSD</t>
+  </si>
+  <si>
+    <t>Direct Investment Credit, millions of USD</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct, millions de dollars US</t>
+  </si>
+  <si>
+    <t>ROICredAsset</t>
+  </si>
+  <si>
+    <t>Return on outward direct investment (credits over two-year average assets X 100)</t>
+  </si>
+  <si>
+    <t>Rendement des investissements directs sortants (crédits divisés par la moyenne des actifs sur deux ans X 100)</t>
+  </si>
+  <si>
+    <t>ROIDebitLiab</t>
+  </si>
+  <si>
+    <t>Return on inward direct investment (debits over two-year average liabilities X 100)</t>
+  </si>
+  <si>
+    <t>Rendement des investissements directs entrants (débits divisés par le passif moyen sur deux ans X 100)</t>
   </si>
   <si>
     <t>CountryArea</t>
@@ -1683,7 +1929,25 @@
     <t>Country Area (thousands of ha)</t>
   </si>
   <si>
-    <t>Superficie (milliers d'hectares)</t>
+    <t>Superficie (milliers d'ha)</t>
+  </si>
+  <si>
+    <t>LandArea</t>
+  </si>
+  <si>
+    <t>Land area (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Superficie terrestre (milliers d'ha)</t>
+  </si>
+  <si>
+    <t>ArtSurf</t>
+  </si>
+  <si>
+    <t>Artificial surfaces (including urban and associated areas) (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Surfaces artificielles (y compris les zones urbaines et associées) (milliers d'ha)</t>
   </si>
   <si>
     <t>AgricLand</t>
@@ -1692,7 +1956,7 @@
     <t>Agricultural land (thousands of ha)</t>
   </si>
   <si>
-    <t>Terres agricoles (milliers d'hectares)</t>
+    <t>Terres agricoles (milliers d'ha)</t>
   </si>
   <si>
     <t>CropLand</t>
@@ -1701,7 +1965,16 @@
     <t>Cropland (thousands of ha)</t>
   </si>
   <si>
-    <t>Terres cultivées (milliers d'hectares)</t>
+    <t>Terres cultivées (milliers d'ha)</t>
+  </si>
+  <si>
+    <t>ArabLand</t>
+  </si>
+  <si>
+    <t>Arable land (thousands of ha)</t>
+  </si>
+  <si>
+    <t>Terres arables (milliers d'ha)</t>
   </si>
   <si>
     <t>ForestLand</t>
@@ -1710,7 +1983,7 @@
     <t>Forest land (thousands of ha)</t>
   </si>
   <si>
-    <t>Terres forestières (milliers d'hectares)</t>
+    <t>Terres forestières (milliers d'ha)</t>
   </si>
   <si>
     <t>InlndWtrs</t>
@@ -1719,7 +1992,79 @@
     <t>Inland waters (thousands of ha)</t>
   </si>
   <si>
-    <t>Eaux intérieures (milliers d'hectares)</t>
+    <t>Eaux intérieures (milliers d'ha)</t>
+  </si>
+  <si>
+    <t>CarbStock</t>
+  </si>
+  <si>
+    <t>Carbon stock in living biomass (forests, millions of tonnes)</t>
+  </si>
+  <si>
+    <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
+  </si>
+  <si>
+    <t>CrbStckChg</t>
+  </si>
+  <si>
+    <t>Carbon stock change in forests - kilotonnes of CO2 equivalent net emissions/removals</t>
+  </si>
+  <si>
+    <t>Variation des stocks de carbone dans les forêts - émissions/absoptions nettes en kilotonnes d'équivalent CO2</t>
+  </si>
+  <si>
+    <t>FrmGteEm</t>
+  </si>
+  <si>
+    <t>Farm-gate emissions (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Émissions à la ferme (émissions en kilotonnes d'équivalent CO2)</t>
+  </si>
+  <si>
+    <t>LndUseChgEm</t>
+  </si>
+  <si>
+    <t>Land Use change (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Changement d'affectation des terres (kilotonnes d'émissions d'équivalent CO2)</t>
+  </si>
+  <si>
+    <t>FrstLandEm</t>
+  </si>
+  <si>
+    <t>Forestland (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Terres forestières (kilotonnes d'émissions d'équivalent CO2)</t>
+  </si>
+  <si>
+    <t>FrstFireEm</t>
+  </si>
+  <si>
+    <t>Forest fires (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Incendies de forêt (émissions en kilotonnes d'équivalent CO2)</t>
+  </si>
+  <si>
+    <t>SynthFertEm</t>
+  </si>
+  <si>
+    <t>Synthetic Fertilizers (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Engrais synthétiques (émissions en kilotonnes d'équivalent CO2)</t>
+  </si>
+  <si>
+    <t>OnFrmEngyEm</t>
+  </si>
+  <si>
+    <t>On-farm energy use (kilotonnes of CO2 equivalent emissions)</t>
+  </si>
+  <si>
+    <t>Consommation d'énergie à la ferme (kilotonnes d'émissions d'équivalent CO2)</t>
   </si>
   <si>
     <t>AgricProd</t>
@@ -1728,7 +2073,7 @@
     <t>Agricultural Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production agricole (millions USD)</t>
+    <t>Production agricole (millions de dollars US)</t>
   </si>
   <si>
     <t>CerealProd</t>
@@ -1737,592 +2082,1087 @@
     <t>Cereal Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production céréalière (millions USD)</t>
-  </si>
-  <si>
-    <t>CropProd</t>
+    <t>Production céréalière (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>AgFoodProd</t>
+  </si>
+  <si>
+    <t>Food Production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production alimentaire (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>AgCropProd</t>
   </si>
   <si>
     <t>Crops Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production des cultures (millions USD)</t>
-  </si>
-  <si>
-    <t>FoodProd</t>
-  </si>
-  <si>
-    <t>Food Production (millions of USD)</t>
-  </si>
-  <si>
-    <t>Production alimentaire (millions USD)</t>
-  </si>
-  <si>
-    <t>LivStkProd</t>
+    <t>Production des cultures (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>AgLvStProd</t>
   </si>
   <si>
     <t>Livestock Production (millions of USD)</t>
   </si>
   <si>
-    <t>Production animale (millions USD)</t>
-  </si>
-  <si>
-    <t>NFoodProd</t>
-  </si>
-  <si>
-    <t>Non Food Agricultural Production (millions of USD)</t>
-  </si>
-  <si>
-    <t>Production agricole non alimentaire (millions USD)</t>
+    <t>Production de bétail (millions de dollars US)</t>
+  </si>
+  <si>
+    <t>AgNnFdProd</t>
+  </si>
+  <si>
+    <t>Non food agricultural production (millions of USD)</t>
+  </si>
+  <si>
+    <t>Production agricole non alimentaire (millions de dollars US)</t>
   </si>
   <si>
     <t>FoodSupp</t>
   </si>
   <si>
-    <t>Food supply (kcal/capita/day)</t>
-  </si>
-  <si>
-    <t>Approvisionnement alimentaire (kcal / habitant / jour)</t>
-  </si>
-  <si>
-    <t>NitUse</t>
-  </si>
-  <si>
-    <t>Agricultural use of nutrient nitrogen (tonnes)</t>
-  </si>
-  <si>
-    <t>Usage agricole d'azote nutritif (tonnes)</t>
-  </si>
-  <si>
-    <t>NitUseArea</t>
-  </si>
-  <si>
-    <t>Agricultural use of nutrient nitrogen per area of cropland (tonnes/ha)</t>
-  </si>
-  <si>
-    <t>Usage agricole d'azote nutritif par superficie de terres cultivées (tonnes / ha)</t>
-  </si>
-  <si>
-    <t>CarbStock</t>
-  </si>
-  <si>
-    <t>Carbon stock in living biomass (forests, millions of tonnes)</t>
-  </si>
-  <si>
-    <t>Stock de carbone dans la biomasse vivante (forêts, millions de tonnes)</t>
-  </si>
-  <si>
-    <t>TotAgGHG</t>
-  </si>
-  <si>
-    <t>Total GHG emissions from agriculture (CO2-equivalent gigagrams)</t>
-  </si>
-  <si>
-    <t>Émissions totales de GES de l'agriculture (gigagrammes d'équivalent CO2)</t>
+    <t>Total food supply (kcal/capita/day)</t>
+  </si>
+  <si>
+    <t>Approvisionnement alimentaire total (kcal / habitant / jour)</t>
+  </si>
+  <si>
+    <t>WoodProd</t>
+  </si>
+  <si>
+    <t>Production of wood products (thousands of cubic meters)</t>
+  </si>
+  <si>
+    <t>Production de produits du bois (milliers de mètres cubes)</t>
+  </si>
+  <si>
+    <t>ChrPlpPprPrd</t>
+  </si>
+  <si>
+    <t>Production of wood charcoal, pulp, paper, fibre and pellets (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Production de charbon de bois, pâte à papier, papier, fibres et granulés (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertProdNit</t>
+  </si>
+  <si>
+    <t>Nutrient nitrogen production (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Production d'azote nutritif (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertProdPho</t>
+  </si>
+  <si>
+    <t>Nutrient phosphate production (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Production de phosphate nutritif (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertProdPot</t>
+  </si>
+  <si>
+    <t>Nutrient potash production (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Production de potasse nutritive (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertUseNit</t>
+  </si>
+  <si>
+    <t>Agricultural use of nutrient nitrogen (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Utilisation agricole de l'azote nutritif (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertUsePho</t>
+  </si>
+  <si>
+    <t>Agricultural use of phosphate (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Utilisation agricole du phosphate (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>FertUsePot</t>
+  </si>
+  <si>
+    <t>Agricultural use of potash (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Utilisation agricole de la potasse (milliers de tonnes)</t>
+  </si>
+  <si>
+    <t>HlthExpPGD</t>
+  </si>
+  <si>
+    <t>Current health expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Dépenses courantes de santé (% du PIB)</t>
+  </si>
+  <si>
+    <t>HlthExpPGDExt</t>
+  </si>
+  <si>
+    <t>External health expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Dépenses externes de santé (% du PIB)</t>
+  </si>
+  <si>
+    <t>HlthExpPGDPub</t>
+  </si>
+  <si>
+    <t>Domestic general government health expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Dépenses de santé des administrations publiques nationales (% du PIB)</t>
+  </si>
+  <si>
+    <t>HlthExpPGDPrv</t>
+  </si>
+  <si>
+    <t>Domestic private health expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Dépenses nationales de santé privées par habitant (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvCFCPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: consumption of fixed capital (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : consommation de capital fixe (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvNNSPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: net national savings (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épargne nationale nette (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvEDUPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: education expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dépenses d'éducation (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvENDPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: energy depletion (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement énergétique (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvMIDPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: mineral depletion (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement des ressources minérales (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvNFDPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: net forest depletion (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement net des forêts (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvCO2PGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: carbon dioxide damage (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dommages causés par le dioxyde de carbone (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvPOLPGD</t>
+  </si>
+  <si>
+    <t>Adjusted savings: particulate emission damage (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dommages causés par les émissions de particules (% du PIB)</t>
+  </si>
+  <si>
+    <t>AdjSvANSPGD</t>
+  </si>
+  <si>
+    <t>Adjusted net savings, including particulate emission damage (% of GDP)</t>
+  </si>
+  <si>
+    <t>Épargne nette ajustée, y compris les dommages causés par les émissions de particules (% du PIB)</t>
+  </si>
+  <si>
+    <t>GHGFCOMB</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) of GHG from fuel combustion</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de GES provenant de la combustion de carburant</t>
+  </si>
+  <si>
+    <t>OTHEN</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from other energy industry own use</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) provenant de l'autoconsommation d'autres industries énergétiques</t>
+  </si>
+  <si>
+    <t>TOTIND</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from manufacturing industries and construction</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des industries manufacturières et de la construction</t>
+  </si>
+  <si>
+    <t>TOTTRANS</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from transport</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) du Transport</t>
+  </si>
+  <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from road</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des routes</t>
+  </si>
+  <si>
+    <t>RESIDENT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from residential</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) du secteur résidentiel</t>
+  </si>
+  <si>
+    <t>COMMPUB</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from commercial and public services</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des services commerciaux et publics</t>
+  </si>
+  <si>
+    <t>AGRICULT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from agriculture/forestry</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de l'agriculture/foresterie</t>
+  </si>
+  <si>
+    <t>FISHING</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from fishing</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la pêche</t>
+  </si>
+  <si>
+    <t>ONONSPEC</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from final consumption not elsewhere specified</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la consommation finale non spécifiée ailleurs</t>
+  </si>
+  <si>
+    <t>ELECHEAT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from electricity and heat production</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la production d'électricité et de chaleur</t>
+  </si>
+  <si>
+    <t>PUBFINSOLAR</t>
+  </si>
+  <si>
+    <t>Public flows into solar power in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie solaire en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINWIND</t>
+  </si>
+  <si>
+    <t>Public flows into wind power in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie éolienne en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINGEO</t>
+  </si>
+  <si>
+    <t>Public flows into geothermal energy in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie géothermique en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINHYDRO</t>
+  </si>
+  <si>
+    <t>Public flows into renewable hydropower in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'hydroélectricité renouvelable en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINBIOF</t>
+  </si>
+  <si>
+    <t>Public flows into biofuels in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les biocarburants en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINOTHREN</t>
+  </si>
+  <si>
+    <t>Public flows into renewable energy n.e.s. in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les énergies renouvelables n.d.a. en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINNUCL</t>
+  </si>
+  <si>
+    <t>Public flows into nuclear power in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers le nucléaire en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINPUMP</t>
+  </si>
+  <si>
+    <t>Public flows into pumped storage in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers le stockage pompage-turbinage en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>PUBFINFOSS</t>
+  </si>
+  <si>
+    <t>Public flows into fossil fuels in millions of 2020 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les combustibles fossiles en millions de dollars US de 2020</t>
+  </si>
+  <si>
+    <t>ELECCAPSOLAR</t>
+  </si>
+  <si>
+    <t>Electric power capacity solar power in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique solaire en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPWIND</t>
+  </si>
+  <si>
+    <t>Electric power capacity wind power in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique éolienne en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPGEO</t>
+  </si>
+  <si>
+    <t>Electric power capacity geothermal energy in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique géothermique en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPHYDRO</t>
+  </si>
+  <si>
+    <t>Electric power capacity renewable hydropower in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique hydroélectrique renouvelable en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPBIOF</t>
+  </si>
+  <si>
+    <t>Electric power capacity from biofuels in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique à partir de biocarburants en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPOTHREN</t>
+  </si>
+  <si>
+    <t>Electric power capacityrenewable energy n.e.s. in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique renouvelables n.d.a. en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPNUCL</t>
+  </si>
+  <si>
+    <t>Electric power capacity nuclear power in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique nucléaire en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPPUMP</t>
+  </si>
+  <si>
+    <t>Electric power capacity pumped storage in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique du pompage-turbinage en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECCAPFOSS</t>
+  </si>
+  <si>
+    <t>Electric power capacity from fossil fuels in megawatts (MW)</t>
+  </si>
+  <si>
+    <t>Capacité d'énergie électrique à partir de combustibles fossiles en mégawatts (MW)</t>
+  </si>
+  <si>
+    <t>ELECGENSOLAR</t>
+  </si>
+  <si>
+    <t>Electric power generation solar power in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique solaire en gigawattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENWIND</t>
+  </si>
+  <si>
+    <t>Electric power generation wind power in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique éolienne en GigaWattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENGEO</t>
+  </si>
+  <si>
+    <t>Electric power generation geothermal energy in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique géothermique en GigaWattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENHYDRO</t>
+  </si>
+  <si>
+    <t>Electric power generation renewable hydropower in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie hydroélectrique renouvelable en gigawattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENBIOF</t>
+  </si>
+  <si>
+    <t>Electric power generation from biofuels in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique à partir de biocarburants en gigawattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENOTHREN</t>
+  </si>
+  <si>
+    <t>Electric power generationrenewable energy n.e.s. in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique renouvelables n.d.a. en gigawattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENNUCL</t>
+  </si>
+  <si>
+    <t>Electric power generation nuclear power in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique nucléaire en GigaWattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENPUMP</t>
+  </si>
+  <si>
+    <t>Electric power generation pumped storage in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique par pompage-turbinage en gigawattheures (GWh)</t>
+  </si>
+  <si>
+    <t>ELECGENFOSS</t>
+  </si>
+  <si>
+    <t>Electric power generation from fossil fuels in GigaWatt hours (GWh)</t>
+  </si>
+  <si>
+    <t>Production d'énergie électrique à partir de combustibles fossiles en gigawattheures (GWh)</t>
   </si>
   <si>
     <t>gexp</t>
   </si>
   <si>
-    <t>Gross exports (dc+fc)</t>
-  </si>
-  <si>
-    <t>Exportations brutes (dc + fc)</t>
+    <t>Gross exports (dc+fc, millions of USD)</t>
+  </si>
+  <si>
+    <t>Exportations brutes (dc+fc, millions de dollars US)</t>
   </si>
   <si>
     <t>gvc</t>
   </si>
   <si>
-    <t>GVC exports (value of production crossing more than one border, gvcb+gvcf)</t>
-  </si>
-  <si>
-    <t>Exportations CVM (valeur de la production traversant plus d'une frontière, gvcb + gvcf)</t>
+    <t>GVC exports (value of production crossing more than one border, gvcb+gvcf, millions of USD)</t>
+  </si>
+  <si>
+    <t>Exportations CVM (valeur de la production traversant plus d'une frontière, gvcb + gvcf, millions de dollars US)</t>
   </si>
   <si>
     <t>gvcb</t>
   </si>
   <si>
-    <t>GVC backward participation (foreign and domestic value in imported inputs that are re-exported)</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (valeur étrangère et nationale des intrants importés réexportés)</t>
+    <t>GVC backward participation (foreign and domestic value in imported inputs that are re-exported, millions of USD)</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (valeur étrangère et nationale des intrants importés réexportés, millions de dollars US)</t>
   </si>
   <si>
     <t>gvcf</t>
   </si>
   <si>
-    <t>GVC forward participation (value of domestic productions re-exported by the bilateral partners)</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (valeur des productions nationales réexportées par les partenaires bilatéraux)</t>
+    <t>GVC forward participation (value of domestic productions re-exported by the bilateral partners, millions of USD)</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (valeur des productions nationales réexportées par les partenaires bilatéraux, millions de dollars US)</t>
   </si>
   <si>
     <t>gvcb01</t>
   </si>
   <si>
-    <t>GVC backward participation - Agriculture</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Agriculture</t>
+    <t>GVC backward participation (millions of USD) - Agriculture</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Agriculture</t>
   </si>
   <si>
     <t>gvcb02</t>
   </si>
   <si>
-    <t>GVC backward participation - Fishing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Pêche</t>
+    <t>GVC backward participation (millions of USD) - Fishing</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Pêche</t>
   </si>
   <si>
     <t>gvcb03</t>
   </si>
   <si>
-    <t>GVC backward participation - Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Mines et carrières</t>
+    <t>GVC backward participation (millions of USD) - Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Mines et carrières</t>
   </si>
   <si>
     <t>gvcb04</t>
   </si>
   <si>
-    <t>GVC backward participation - Food &amp; Beverages</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Alimentation et boissons</t>
+    <t>GVC backward participation (millions of USD) - Food &amp; Beverages</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Alimentation et boissons</t>
   </si>
   <si>
     <t>gvcb05</t>
   </si>
   <si>
-    <t>GVC backward participation - Textiles and Wearing Apparel</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Textiles et vêtements</t>
+    <t>GVC backward participation (millions of USD) - Textiles and Wearing Apparel</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Textiles et vêtements</t>
   </si>
   <si>
     <t>gvcb06</t>
   </si>
   <si>
-    <t>GVC backward participation - Wood and Paper</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Bois et papier</t>
+    <t>GVC backward participation (millions of USD) - Wood and Paper</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Bois et papier</t>
   </si>
   <si>
     <t>gvcb07</t>
   </si>
   <si>
-    <t>GVC backward participation - Petroleum, Chemical and Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Produits pétroliers, chimiques et minéraux non métalliques</t>
+    <t>GVC backward participation (millions of USD) - Petroleum, Chemical and Non-Metallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Produits pétroliers, chimiques et minéraux non métalliques</t>
   </si>
   <si>
     <t>gvcb08</t>
   </si>
   <si>
-    <t>GVC backward participation - Metal Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Produits métalliques</t>
+    <t>GVC backward participation (millions of USD) - Metal Products</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Produits métalliques</t>
   </si>
   <si>
     <t>gvcb09</t>
   </si>
   <si>
-    <t>GVC backward participation - Electrical and Machinery</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Électricité et machinerie</t>
+    <t>GVC backward participation (millions of USD) - Electrical and Machinery</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Électricité et machinerie</t>
   </si>
   <si>
     <t>gvcb10</t>
   </si>
   <si>
-    <t>GVC backward participation - Transport Equipment</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Équipement de transport</t>
+    <t>GVC backward participation (millions of USD) - Transport Equipment</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Équipement de transport</t>
   </si>
   <si>
     <t>gvcb11</t>
   </si>
   <si>
-    <t>GVC backward participation - Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Autres industries manufacturières</t>
+    <t>GVC backward participation (millions of USD) - Other Manufacturing</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Autres industries manufacturières</t>
   </si>
   <si>
     <t>gvcb12</t>
   </si>
   <si>
-    <t>GVC backward participation - Recycling</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Recyclage</t>
+    <t>GVC backward participation (millions of USD) - Recycling</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Recyclage</t>
   </si>
   <si>
     <t>gvcb13</t>
   </si>
   <si>
-    <t>GVC backward participation - Electricity, Gas and Water</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Électricité, gaz et eau</t>
+    <t>GVC backward participation (millions of USD) - Electricity, Gas and Water</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Électricité, gaz et eau</t>
   </si>
   <si>
     <t>gvcb14</t>
   </si>
   <si>
-    <t>GVC backward participation - Construction</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Construction</t>
+    <t>GVC backward participation (millions of USD) - Construction</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Construction</t>
   </si>
   <si>
     <t>gvcb15</t>
   </si>
   <si>
-    <t>GVC backward participation - Maintenance and Repair</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Maintenance et réparation</t>
+    <t>GVC backward participation (millions of USD) - Maintenance and Repair</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Maintenance et réparation</t>
   </si>
   <si>
     <t>gvcb16</t>
   </si>
   <si>
-    <t>GVC backward participation - Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Commerce de gros</t>
+    <t>GVC backward participation (millions of USD) - Wholesale Trade</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Commerce de gros</t>
   </si>
   <si>
     <t>gvcb17</t>
   </si>
   <si>
-    <t>GVC backward participation - Retail Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Commerce de détail</t>
+    <t>GVC backward participation (millions of USD) - Retail Trade</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Commerce de détail</t>
   </si>
   <si>
     <t>gvcb18</t>
   </si>
   <si>
-    <t>GVC backward participation - Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Hôtels et Restaurants</t>
+    <t>GVC backward participation (millions of USD) - Hotels and Restaurants</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Hôtels et Restaurants</t>
   </si>
   <si>
     <t>gvcb19</t>
   </si>
   <si>
-    <t>GVC backward participation - Transport</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Transport</t>
+    <t>GVC backward participation (millions of USD) - Transport</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Transport</t>
   </si>
   <si>
     <t>gvcb20</t>
   </si>
   <si>
-    <t>GVC backward participation - Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Postes et télécommunications</t>
+    <t>GVC backward participation (millions of USD) - Post and Telecommunications</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Postes et télécommunications</t>
   </si>
   <si>
     <t>gvcb21</t>
   </si>
   <si>
-    <t>GVC backward participation - Financial Intermediation and Business Activities</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Intermédiation financière et activités commerciales</t>
+    <t>GVC backward participation (millions of USD) - Financial Intermediation and Business Activities</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Intermédiation financière et activités commerciales</t>
   </si>
   <si>
     <t>gvcb22</t>
   </si>
   <si>
-    <t>GVC backward participation - Public Administration</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Administration publique</t>
+    <t>GVC backward participation (millions of USD) - Public Administration</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Administration publique</t>
   </si>
   <si>
     <t>gvcb23</t>
   </si>
   <si>
-    <t>GVC backward participation - Education, Health and Other Services</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Éducation, santé et autres services</t>
+    <t>GVC backward participation (millions of USD) - Education, Health and Other Services</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Éducation, santé et autres services</t>
   </si>
   <si>
     <t>gvcb24</t>
   </si>
   <si>
-    <t>GVC backward participation - Private Households</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Ménages privés</t>
+    <t>GVC backward participation (millions of USD) - Private Households</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Ménages privés</t>
   </si>
   <si>
     <t>gvcb25</t>
   </si>
   <si>
-    <t>GVC backward participation - Others</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - Autres</t>
+    <t>GVC backward participation (millions of USD) - Others</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - Autres</t>
   </si>
   <si>
     <t>gvcb26</t>
   </si>
   <si>
-    <t>GVC backward participation - Re-export &amp; Re-import</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM - réexportation et réimportation</t>
+    <t>GVC backward participation (millions of USD) - Re-export &amp; Re-import</t>
+  </si>
+  <si>
+    <t>Participation en amont aux CVM (millions de dollars US) - réexportation et réimportation</t>
   </si>
   <si>
     <t>gvcf01</t>
   </si>
   <si>
-    <t>GVC forward participation - Agriculture</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Agriculture</t>
+    <t>GVC forward participation (millions of USD) - Agriculture</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Agriculture</t>
   </si>
   <si>
     <t>gvcf02</t>
   </si>
   <si>
-    <t>GVC forward participation - Fishing</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Pêche</t>
+    <t>GVC forward participation (millions of USD) - Fishing</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Pêche</t>
   </si>
   <si>
     <t>gvcf03</t>
   </si>
   <si>
-    <t>GVC forward participation - Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Mines et Carrières</t>
+    <t>GVC forward participation (millions of USD) - Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Mines et Carrières</t>
   </si>
   <si>
     <t>gvcf04</t>
   </si>
   <si>
-    <t>GVC forward participation - Food &amp; Beverages</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Alimentation et boissons</t>
+    <t>GVC forward participation (millions of USD) - Food &amp; Beverages</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Alimentation et boissons</t>
   </si>
   <si>
     <t>gvcf05</t>
   </si>
   <si>
-    <t>GVC forward participation - Textiles and Wearing Apparel</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Textiles et vêtements</t>
+    <t>GVC forward participation (millions of USD) - Textiles and Wearing Apparel</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Textiles et vêtements</t>
   </si>
   <si>
     <t>gvcf06</t>
   </si>
   <si>
-    <t>GVC forward participation - Wood and Paper</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Bois et papier</t>
+    <t>GVC forward participation (millions of USD) - Wood and Paper</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Bois et papier</t>
   </si>
   <si>
     <t>gvcf07</t>
   </si>
   <si>
-    <t>GVC forward participation - Petroleum, Chemical and Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Produits pétroliers, chimiques et minéraux non métalliques</t>
+    <t>GVC forward participation (millions of USD) - Petroleum, Chemical and Non-Metallic Mineral Products</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Produits pétroliers, chimiques et minéraux non métalliques</t>
   </si>
   <si>
     <t>gvcf08</t>
   </si>
   <si>
-    <t>GVC forward participation - Metal Products</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Produits métalliques</t>
+    <t>GVC forward participation (millions of USD) - Metal Products</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Produits métalliques</t>
   </si>
   <si>
     <t>gvcf09</t>
   </si>
   <si>
-    <t>GVC forward participation - Electrical and Machinery</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Électricité et machinerie</t>
+    <t>GVC forward participation (millions of USD) - Electrical and Machinery</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Électricité et machinerie</t>
   </si>
   <si>
     <t>gvcf10</t>
   </si>
   <si>
-    <t>GVC forward participation - Transport Equipment</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Équipement de transport</t>
+    <t>GVC forward participation (millions of USD) - Transport Equipment</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Équipement de transport</t>
   </si>
   <si>
     <t>gvcf11</t>
   </si>
   <si>
-    <t>GVC forward participation - Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Autres industries manufacturières</t>
+    <t>GVC forward participation (millions of USD) - Other Manufacturing</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Autres industries manufacturières</t>
   </si>
   <si>
     <t>gvcf12</t>
   </si>
   <si>
-    <t>GVC forward participation - Recycling</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Recyclage</t>
+    <t>GVC forward participation (millions of USD) - Recycling</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Recyclage</t>
   </si>
   <si>
     <t>gvcf13</t>
   </si>
   <si>
-    <t>GVC forward participation - Electricity, Gas and Water</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Électricité, gaz et eau</t>
+    <t>GVC forward participation (millions of USD) - Electricity, Gas and Water</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Électricité, gaz et eau</t>
   </si>
   <si>
     <t>gvcf14</t>
   </si>
   <si>
-    <t>GVC forward participation - Construction</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Construction</t>
+    <t>GVC forward participation (millions of USD) - Construction</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Construction</t>
   </si>
   <si>
     <t>gvcf15</t>
   </si>
   <si>
-    <t>GVC forward participation - Maintenance and Repair</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Maintenance et réparation</t>
+    <t>GVC forward participation (millions of USD) - Maintenance and Repair</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Maintenance et réparation</t>
   </si>
   <si>
     <t>gvcf16</t>
   </si>
   <si>
-    <t>GVC forward participation - Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Commerce de gros</t>
+    <t>GVC forward participation (millions of USD) - Wholesale Trade</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Commerce de gros</t>
   </si>
   <si>
     <t>gvcf17</t>
   </si>
   <si>
-    <t>GVC forward participation - Retail Trade</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Commerce de détail</t>
+    <t>GVC forward participation (millions of USD) - Retail Trade</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Commerce de détail</t>
   </si>
   <si>
     <t>gvcf18</t>
   </si>
   <si>
-    <t>GVC forward participation - Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Hôtels et Restaurants</t>
+    <t>GVC forward participation (millions of USD) - Hotels and Restaurants</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Hôtels et Restaurants</t>
   </si>
   <si>
     <t>gvcf19</t>
   </si>
   <si>
-    <t>GVC forward participation - Transport</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Transport</t>
+    <t>GVC forward participation (millions of USD) - Transport</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Transport</t>
   </si>
   <si>
     <t>gvcf20</t>
   </si>
   <si>
-    <t>GVC forward participation - Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Postes et télécommunications</t>
+    <t>GVC forward participation (millions of USD) - Post and Telecommunications</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Postes et télécommunications</t>
   </si>
   <si>
     <t>gvcf21</t>
   </si>
   <si>
-    <t>GVC forward participation - Financial Intermediation and Business Activities</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Intermédiation financière et activités commerciales</t>
+    <t>GVC forward participation (millions of USD) - Financial Intermediation and Business Activities</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Intermédiation financière et activités commerciales</t>
   </si>
   <si>
     <t>gvcf22</t>
   </si>
   <si>
-    <t>GVC forward participation - Public Administration</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Administration publique</t>
+    <t>GVC forward participation (millions of USD) - Public Administration</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Administration publique</t>
   </si>
   <si>
     <t>gvcf23</t>
   </si>
   <si>
-    <t>GVC forward participation - Education, Health and Other Services</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Éducation, santé et autres services</t>
+    <t>GVC forward participation (millions of USD) - Education, Health and Other Services</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Éducation, santé et autres services</t>
   </si>
   <si>
     <t>gvcf24</t>
   </si>
   <si>
-    <t>GVC forward participation - Private Households</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Ménages privés</t>
+    <t>GVC forward participation (millions of USD) - Private Households</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Ménages privés</t>
   </si>
   <si>
     <t>gvcf25</t>
   </si>
   <si>
-    <t>GVC forward participation - Others</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - Autres</t>
+    <t>GVC forward participation (millions of USD) - Others</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - Autres</t>
   </si>
   <si>
     <t>gvcf26</t>
   </si>
   <si>
-    <t>GVC forward participation - Re-export &amp; Re-import</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM - réexportation et réimportation</t>
+    <t>GVC forward participation (millions of USD) - Re-export &amp; Re-import</t>
+  </si>
+  <si>
+    <t>Participation en aval aux CVM (millions de dollars US) - réexportation et réimportation</t>
   </si>
   <si>
     <t>VASameCtry</t>
@@ -2331,7 +3171,7 @@
     <t>Total value of national exports originating domestically (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales originaires du pays (millions d'USD)</t>
+    <t>Valeur totale des exportations nationales originaires du pays (millions de dollars US)</t>
   </si>
   <si>
     <t>BkwdVA</t>
@@ -2340,7 +3180,7 @@
     <t>Total foreign added value embedded in national exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur ajoutée étrangère totale intégrée dans les exportations nationales (millions d'USD)</t>
+    <t>Valeur ajoutée étrangère totale intégrée dans les exportations nationales (millions de dollars US)</t>
   </si>
   <si>
     <t>BkwdVABordCtry</t>
@@ -2349,7 +3189,7 @@
     <t>Total added value from neighbouring countries embedded in national exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur ajoutée totale des pays voisins intégrée dans les exportations nationales (millions d'USD)</t>
+    <t>Valeur ajoutée totale des pays voisins intégrée dans les exportations nationales (millions de dollars US)</t>
   </si>
   <si>
     <t>BkwdVASameAUCReg</t>
@@ -2358,7 +3198,7 @@
     <t>Total added value from countries within the same AUC region embedded in national exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur ajoutée totale des pays de la même région de la CUA intégrée dans les exportations nationales (millions d'USD)</t>
+    <t>Valeur ajoutée totale des pays de la même région de la CUA intégrée dans les exportations nationales (millions de dollars US)</t>
   </si>
   <si>
     <t>BkwdVASameCont</t>
@@ -2367,7 +3207,7 @@
     <t>Total added value from countries within the same continent embedded in national exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur ajoutée totale des pays d'un même continent intégrée dans les exportations nationales (millions d'USD)</t>
+    <t>Valeur ajoutée totale des pays d'un même continent intégrée dans les exportations nationales (millions de dollars US)</t>
   </si>
   <si>
     <t>BkwdVAExtraCont</t>
@@ -2376,7 +3216,7 @@
     <t>Total added value from outside the continent embedded in national exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur ajoutée totale de l'extérieur du continent intégrée dans les exportations nationales (millions d'USD)</t>
+    <t>Valeur ajoutée totale de l'extérieur du continent intégrée dans les exportations nationales (millions de dollars US)</t>
   </si>
   <si>
     <t>FrwdVA</t>
@@ -2385,7 +3225,7 @@
     <t>Total value of national exports embedded in foreign exports (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales incorporées dans les exportations étrangères (millions d'USD)</t>
+    <t>Valeur totale des exportations nationales incorporées dans les exportations étrangères (millions de dollars US)</t>
   </si>
   <si>
     <t>FrwdVABordCtry</t>
@@ -2394,7 +3234,7 @@
     <t>Total value of national exports embedded in exports of neighbouring countries (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays voisins (millions d'USD)</t>
+    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays voisins (millions de dollars US)</t>
   </si>
   <si>
     <t>FrwdVASameAUCReg</t>
@@ -2403,7 +3243,7 @@
     <t>Total value of national exports embedded in exports of countries within the same AUC region (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays de la même région de la CUA (millions d'USD)</t>
+    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays de la même région de la CUA (millions de dollars US)</t>
   </si>
   <si>
     <t>FrwdVASameCont</t>
@@ -2412,7 +3252,7 @@
     <t>Total value of national exports embedded in exports of countries within the same continent (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays d'un même continent (millions d'USD)</t>
+    <t>Valeur totale des exportations nationales intégrées dans les exportations des pays d'un même continent (millions de dollars US)</t>
   </si>
   <si>
     <t>FrwdVAExtraCont</t>
@@ -2421,7 +3261,7 @@
     <t>Total value of national exports embedded in exports of countries in other continents (millions of USD)</t>
   </si>
   <si>
-    <t>Valeur totale des exportations nationales incorporées dans les exportations des pays d'autres continents (millions de USD)</t>
+    <t>Valeur totale des exportations nationales incorporées dans les exportations des pays d'autres continents (millions de dollars US)</t>
   </si>
   <si>
     <t>VASameCtryPGD</t>
@@ -2655,13 +3495,13 @@
     <t>Number of ISO 50001 energy management systems certificates</t>
   </si>
   <si>
-    <t>Nombre de certificats ISO 50001 de systèmes de management de l'énergie</t>
+    <t>Nombre de certificats de systèmes de management de l'énergie ISO 50001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2736,7 +3576,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2748,7 +3588,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2795,6 +3635,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2830,6 +3687,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2981,11 +3855,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E8FEFA-70CC-4555-AB67-10B9006FF89B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3117,3115 +3993,4116 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B128" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C135" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B137" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C140" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B142" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B143" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C143" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B147" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C149" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B150" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C150" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B151" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C151" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B152" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C152" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B153" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C153" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B154" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C154" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C155" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B156" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C156" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C157" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C158" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B160" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C160" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C161" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B166" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C166" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B167" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C167" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B168" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B170" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B171" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B172" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B173" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C173" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B174" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B175" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C175" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B176" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C176" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B177" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C177" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B178" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C178" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B179" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C179" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B180" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C180" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B181" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C181" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B182" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C182" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B183" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C183" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B184" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C184" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B185" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C185" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B186" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C186" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B187" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C187" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B188" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C188" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B189" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C189" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B190" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C190" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B191" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C191" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B192" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C192" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B193" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C193" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B194" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C194" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B195" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B196" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C196" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C197" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B198" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C198" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B199" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C199" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B200" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C200" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B201" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C201" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B202" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C202" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B203" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C203" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B204" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C204" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B205" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C205" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B206" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C206" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B207" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C207" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B208" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C208" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B209" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C209" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B210" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C210" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B211" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C211" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B212" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C212" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B213" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C213" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B214" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C214" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B215" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C215" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B216" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C216" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B217" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C217" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B218" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C218" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B219" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C219" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B220" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C220" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B221" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C221" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B222" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C222" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B223" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C223" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B224" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C224" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B225" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C225" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B226" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C226" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B227" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C227" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B228" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C228" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B229" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C229" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C230" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B231" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C231" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B232" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C232" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B233" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C233" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B234" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C234" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B235" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C235" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B236" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C236" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C237" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B238" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C238" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B239" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C239" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B240" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C240" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B241" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C241" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B242" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C242" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B243" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C243" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B244" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C244" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B245" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C245" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B246" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C246" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B247" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C247" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B248" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C248" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B249" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C249" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B250" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C250" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B251" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C251" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B252" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C252" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B253" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C253" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B254" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C254" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B255" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C255" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B256" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C256" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B257" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C257" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B258" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C258" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B259" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C259" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B260" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C260" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B261" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C261" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B262" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C262" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B263" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C263" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B264" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C264" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B265" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C265" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B266" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C266" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B267" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C267" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B268" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C268" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B269" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C269" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B270" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C270" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B271" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C271" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B272" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="C272" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B273" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C273" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B274" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C274" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B275" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C275" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B276" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C276" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B277" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C277" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B278" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C278" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B279" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C279" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B280" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C280" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B281" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C281" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B282" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C282" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B283" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C283" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B284" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C284" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B285" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C285" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B286" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C286" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B287" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C287" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B288" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C288" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B289" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C289" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B290" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C290" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B291" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C291" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B292" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C292" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B293" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C293" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B294" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C294" t="s">
-        <v>877</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>881</v>
+      </c>
+      <c r="B295" t="s">
+        <v>882</v>
+      </c>
+      <c r="C295" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>884</v>
+      </c>
+      <c r="B296" t="s">
+        <v>885</v>
+      </c>
+      <c r="C296" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>887</v>
+      </c>
+      <c r="B297" t="s">
+        <v>888</v>
+      </c>
+      <c r="C297" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>890</v>
+      </c>
+      <c r="B298" t="s">
+        <v>891</v>
+      </c>
+      <c r="C298" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>893</v>
+      </c>
+      <c r="B299" t="s">
+        <v>894</v>
+      </c>
+      <c r="C299" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>896</v>
+      </c>
+      <c r="B300" t="s">
+        <v>897</v>
+      </c>
+      <c r="C300" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>899</v>
+      </c>
+      <c r="B301" t="s">
+        <v>900</v>
+      </c>
+      <c r="C301" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>902</v>
+      </c>
+      <c r="B302" t="s">
+        <v>903</v>
+      </c>
+      <c r="C302" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>905</v>
+      </c>
+      <c r="B303" t="s">
+        <v>906</v>
+      </c>
+      <c r="C303" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>908</v>
+      </c>
+      <c r="B304" t="s">
+        <v>909</v>
+      </c>
+      <c r="C304" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>911</v>
+      </c>
+      <c r="B305" t="s">
+        <v>912</v>
+      </c>
+      <c r="C305" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>914</v>
+      </c>
+      <c r="B306" t="s">
+        <v>915</v>
+      </c>
+      <c r="C306" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>917</v>
+      </c>
+      <c r="B307" t="s">
+        <v>918</v>
+      </c>
+      <c r="C307" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>920</v>
+      </c>
+      <c r="B308" t="s">
+        <v>921</v>
+      </c>
+      <c r="C308" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>923</v>
+      </c>
+      <c r="B309" t="s">
+        <v>924</v>
+      </c>
+      <c r="C309" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>926</v>
+      </c>
+      <c r="B310" t="s">
+        <v>927</v>
+      </c>
+      <c r="C310" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>929</v>
+      </c>
+      <c r="B311" t="s">
+        <v>930</v>
+      </c>
+      <c r="C311" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>932</v>
+      </c>
+      <c r="B312" t="s">
+        <v>933</v>
+      </c>
+      <c r="C312" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>935</v>
+      </c>
+      <c r="B313" t="s">
+        <v>936</v>
+      </c>
+      <c r="C313" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>938</v>
+      </c>
+      <c r="B314" t="s">
+        <v>939</v>
+      </c>
+      <c r="C314" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>941</v>
+      </c>
+      <c r="B315" t="s">
+        <v>942</v>
+      </c>
+      <c r="C315" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>944</v>
+      </c>
+      <c r="B316" t="s">
+        <v>945</v>
+      </c>
+      <c r="C316" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>947</v>
+      </c>
+      <c r="B317" t="s">
+        <v>948</v>
+      </c>
+      <c r="C317" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>950</v>
+      </c>
+      <c r="B318" t="s">
+        <v>951</v>
+      </c>
+      <c r="C318" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>953</v>
+      </c>
+      <c r="B319" t="s">
+        <v>954</v>
+      </c>
+      <c r="C319" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>956</v>
+      </c>
+      <c r="B320" t="s">
+        <v>957</v>
+      </c>
+      <c r="C320" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>959</v>
+      </c>
+      <c r="B321" t="s">
+        <v>960</v>
+      </c>
+      <c r="C321" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>962</v>
+      </c>
+      <c r="B322" t="s">
+        <v>963</v>
+      </c>
+      <c r="C322" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>965</v>
+      </c>
+      <c r="B323" t="s">
+        <v>966</v>
+      </c>
+      <c r="C323" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>968</v>
+      </c>
+      <c r="B324" t="s">
+        <v>969</v>
+      </c>
+      <c r="C324" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>971</v>
+      </c>
+      <c r="B325" t="s">
+        <v>972</v>
+      </c>
+      <c r="C325" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>974</v>
+      </c>
+      <c r="B326" t="s">
+        <v>975</v>
+      </c>
+      <c r="C326" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>977</v>
+      </c>
+      <c r="B327" t="s">
+        <v>978</v>
+      </c>
+      <c r="C327" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>980</v>
+      </c>
+      <c r="B328" t="s">
+        <v>981</v>
+      </c>
+      <c r="C328" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>983</v>
+      </c>
+      <c r="B329" t="s">
+        <v>984</v>
+      </c>
+      <c r="C329" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>986</v>
+      </c>
+      <c r="B330" t="s">
+        <v>987</v>
+      </c>
+      <c r="C330" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>989</v>
+      </c>
+      <c r="B331" t="s">
+        <v>990</v>
+      </c>
+      <c r="C331" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>992</v>
+      </c>
+      <c r="B332" t="s">
+        <v>993</v>
+      </c>
+      <c r="C332" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>995</v>
+      </c>
+      <c r="B333" t="s">
+        <v>996</v>
+      </c>
+      <c r="C333" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>998</v>
+      </c>
+      <c r="B334" t="s">
+        <v>999</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C376" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1153</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_DDAf_2023_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2023_TabIndsCodes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C767834-99CC-482E-B51E-ACBF5C9B2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8658323B-32B1-49AD-9E9C-0D4229CAD0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B531F3C-C09B-4A62-90F7-80D941CE6C54}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{EC7BAAC1-E410-4643-8FF9-4D77ABF8789C}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_TabIndsCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$286</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1022">
   <si>
     <t>IndCode</t>
   </si>
@@ -90,6 +92,15 @@
     <t>PIB en parité de pouvoir d'achat (PPA) en dollars US par habitant</t>
   </si>
   <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Inflation, average consumer prices</t>
+  </si>
+  <si>
+    <t>Inflation, prix moyens à la consommation</t>
+  </si>
+  <si>
     <t>EmpRateTot</t>
   </si>
   <si>
@@ -99,15 +110,6 @@
     <t>Emploi en % de la population âgée de 15 ans et plus</t>
   </si>
   <si>
-    <t>Inflation</t>
-  </si>
-  <si>
-    <t>Inflation, average consumer prices</t>
-  </si>
-  <si>
-    <t>Inflation, prix moyens à la consommation</t>
-  </si>
-  <si>
     <t>GINI</t>
   </si>
   <si>
@@ -315,114 +317,6 @@
     <t>Taux d'alphabétisation de la population âgée de 15 ans et plus, indice ajusté de parité hommes-femmes (IPSA)</t>
   </si>
   <si>
-    <t>WittMedLowEd15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with less than primary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population de 15 ans et plus n'ayant pas atteint le niveau primaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittMedPrim15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with primary but not secondary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittMedScndPL15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with at least secondary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population de 15 ans et plus ayant au moins une éducation secondaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittAcclLowEd15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with less than primary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population âgée de 15 ans et plus n'ayant pas terminé l'enseignement primaire (scénario accéléré)</t>
-  </si>
-  <si>
-    <t>WittAcclPrim15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with primary but not secondary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population âgée de 15 ans et plus ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
-  </si>
-  <si>
-    <t>WittAcclScndPL15PL</t>
-  </si>
-  <si>
-    <t>Percentage of population 15+ with at least secondary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population âgée de 15 ans et plus ayant au moins une éducation secondaire (scénario accéléré)</t>
-  </si>
-  <si>
-    <t>WittMedLowEd1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with less than primary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittMedPrim1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with primary but not secondary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittMedScndPL1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with at least secondary education (medium scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario moyen)</t>
-  </si>
-  <si>
-    <t>WittAcclLowEd1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with less than primary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans n'ayant pas atteint le niveau primaire (scénario accéléré)</t>
-  </si>
-  <si>
-    <t>WittAcclPrim1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with primary but not secondary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans ayant une éducation primaire mais pas secondaire (scénario accéléré)</t>
-  </si>
-  <si>
-    <t>WittAcclScndPL1529</t>
-  </si>
-  <si>
-    <t>Percentage of population aged 15-29 with at least secondary education (accelerated scenario)</t>
-  </si>
-  <si>
-    <t>Population âgée de 15 à 29 ans ayant au moins une éducation secondaire (scénario accéléré)</t>
-  </si>
-  <si>
     <t>EmpRateFemale</t>
   </si>
   <si>
@@ -1131,60 +1025,6 @@
     <t>Exportations de biens et services</t>
   </si>
   <si>
-    <t>GrthDCmpNC</t>
-  </si>
-  <si>
-    <t>Final consumption expenditure (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Dépense de consommation finale (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFI</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Formation brute de capital fixe (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNINV</t>
-  </si>
-  <si>
-    <t>Changes in inventories (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Variations des stocks (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFB</t>
-  </si>
-  <si>
-    <t>Foreign balance (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Solde extérieure (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNM</t>
-  </si>
-  <si>
-    <t>Imports of goods and services (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Importations de biens et services (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
-    <t>GrthDCmpNX</t>
-  </si>
-  <si>
-    <t>Exports of goods and services (% of 5-year GDP growth)</t>
-  </si>
-  <si>
-    <t>Exportations de biens et services (% de la croissance du PIB sur 5 ans)</t>
-  </si>
-  <si>
     <t>GovRevPerGDP</t>
   </si>
   <si>
@@ -1629,10 +1469,10 @@
     <t>OtherInFlPGD</t>
   </si>
   <si>
-    <t>Financial Account, Other Investment, Net Incurrence of Liabilities as a % of GDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compte financier, autres investissements, accroissement net des passifs en % du PIB </t>
+    <t>Other investment inflows as a % of GDP</t>
+  </si>
+  <si>
+    <t>Autres entrées d'investissement en % du PIB</t>
   </si>
   <si>
     <t>ODAPGD</t>
@@ -1692,10 +1532,10 @@
     <t>OtherInFl</t>
   </si>
   <si>
-    <t>Financial Account, Other Investment, Net Incurrence of Liabilities, US Dollars</t>
-  </si>
-  <si>
-    <t>Compte financier, Autres investissements, Accroissement net des passifs, millions de dollars US</t>
+    <t>Other investment inflows (millions of USD)</t>
+  </si>
+  <si>
+    <t>Autres entrées d'investissement, millions de dollars US</t>
   </si>
   <si>
     <t>ODA</t>
@@ -1836,73 +1676,73 @@
     <t>DILiabPGD</t>
   </si>
   <si>
-    <t>Direct Investment Liabilities as a % of GDP</t>
-  </si>
-  <si>
-    <t>Passifs d'investissement direct en % du PIB</t>
+    <t>Direct investment liabilities (stock) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct (stock) en % du PIB</t>
   </si>
   <si>
     <t>DIDebitPGD</t>
   </si>
   <si>
-    <t>Direct Investment Debit as a % of GDP</t>
-  </si>
-  <si>
-    <t>Débit d'investissement direct en % du PIB</t>
+    <t>Direct investment debit (income) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct (revenu) en % du PIB</t>
   </si>
   <si>
     <t>DIAssetPGD</t>
   </si>
   <si>
-    <t>Direct Investment Assets as a % of GDP</t>
-  </si>
-  <si>
-    <t>Actifs d'investissement direct en % du PIB</t>
+    <t>Direct investment assets (stock) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct (stock) en % du PIB</t>
   </si>
   <si>
     <t>DICredPGD</t>
   </si>
   <si>
-    <t>Direct Investment Credit as a % of GDP</t>
-  </si>
-  <si>
-    <t>Crédit d'investissement direct en % du PIB</t>
+    <t>Direct investment credit (income) as a % of GDP</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct (revenu) en % du PIB</t>
   </si>
   <si>
     <t>DILiabUSD</t>
   </si>
   <si>
-    <t>Direct Investment Liabilities, millions of USD</t>
-  </si>
-  <si>
-    <t>Passifs d'investissement direct, millions de dollars US</t>
+    <t>Direct investment liabilities (stock), millions of USD</t>
+  </si>
+  <si>
+    <t>Passifs d'investissement direct (stock), millions de dollars US</t>
   </si>
   <si>
     <t>DIDebitUSD</t>
   </si>
   <si>
-    <t>Direct Investment Debit, millions of USD</t>
-  </si>
-  <si>
-    <t>Débit d'investissement direct, millions de dollars US</t>
+    <t>Direct investment debit (income), millions of USD</t>
+  </si>
+  <si>
+    <t>Débit d'investissement direct (revenu), millions de dollars US</t>
   </si>
   <si>
     <t>DIAssetUSD</t>
   </si>
   <si>
-    <t>Direct Investment Assets, millions of USD</t>
-  </si>
-  <si>
-    <t>Actifs d'investissement direct, millions de dollars US</t>
+    <t>Direct investment assets (stock), millions of USD</t>
+  </si>
+  <si>
+    <t>Actifs d'investissement direct (stock), millions de dollars US</t>
   </si>
   <si>
     <t>DICredUSD</t>
   </si>
   <si>
-    <t>Direct Investment Credit, millions of USD</t>
-  </si>
-  <si>
-    <t>Crédit d'investissement direct, millions de dollars US</t>
+    <t>Direct investment credit (income), millions of USD</t>
+  </si>
+  <si>
+    <t>Crédit d'investissement direct (revenu), millions de dollars US</t>
   </si>
   <si>
     <t>ROICredAsset</t>
@@ -1938,7 +1778,7 @@
     <t>Land area (thousands of ha)</t>
   </si>
   <si>
-    <t>Superficie terrestre (milliers d'ha)</t>
+    <t>Superficie des terres (milliers d'ha)</t>
   </si>
   <si>
     <t>ArtSurf</t>
@@ -1947,7 +1787,7 @@
     <t>Artificial surfaces (including urban and associated areas) (thousands of ha)</t>
   </si>
   <si>
-    <t>Surfaces artificielles (y compris les zones urbaines et associées) (milliers d'ha)</t>
+    <t>Surfaces artificielles, y compris les zones urbaines et associées (milliers d'ha)</t>
   </si>
   <si>
     <t>AgricLand</t>
@@ -2010,13 +1850,13 @@
     <t>Carbon stock change in forests - kilotonnes of CO2 equivalent net emissions/removals</t>
   </si>
   <si>
-    <t>Variation des stocks de carbone dans les forêts - émissions/absoptions nettes en kilotonnes d'équivalent CO2</t>
+    <t>Variations des stocks de carbone dans les forêts - émissions/absoptions nettes en kilotonnes d'équivalent CO2</t>
   </si>
   <si>
     <t>FrmGteEm</t>
   </si>
   <si>
-    <t>Farm-gate emissions (kilotonnes of CO2 equivalent emissions)</t>
+    <t>Farm gate emissions (kilotonnes of CO2 equivalent emissions)</t>
   </si>
   <si>
     <t>Émissions à la ferme (émissions en kilotonnes d'équivalent CO2)</t>
@@ -2028,7 +1868,7 @@
     <t>Land Use change (kilotonnes of CO2 equivalent emissions)</t>
   </si>
   <si>
-    <t>Changement d'affectation des terres (kilotonnes d'émissions d'équivalent CO2)</t>
+    <t>Changement d'utilisation des terres (kilotonnes d'émissions d'équivalent CO2)</t>
   </si>
   <si>
     <t>FrstLandEm</t>
@@ -2046,7 +1886,7 @@
     <t>Forest fires (kilotonnes of CO2 equivalent emissions)</t>
   </si>
   <si>
-    <t>Incendies de forêt (émissions en kilotonnes d'équivalent CO2)</t>
+    <t>Feux et incendies de forêts (émissions en kilotonnes d'équivalent CO2)</t>
   </si>
   <si>
     <t>SynthFertEm</t>
@@ -2181,25 +2021,25 @@
     <t>Agricultural use of nutrient nitrogen (thousands of tonnes)</t>
   </si>
   <si>
-    <t>Utilisation agricole de l'azote nutritif (milliers de tonnes)</t>
+    <t>Utilisation de l'azote nutritif à des fins agricoles (milliers de tonnes)</t>
   </si>
   <si>
     <t>FertUsePho</t>
   </si>
   <si>
-    <t>Agricultural use of phosphate (thousands of tonnes)</t>
-  </si>
-  <si>
-    <t>Utilisation agricole du phosphate (milliers de tonnes)</t>
+    <t>Agricultural use of nutrient phosphate (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Utilisation des engrais phosphatés à des fins agricoles (milliers de tonnes)</t>
   </si>
   <si>
     <t>FertUsePot</t>
   </si>
   <si>
-    <t>Agricultural use of potash (thousands of tonnes)</t>
-  </si>
-  <si>
-    <t>Utilisation agricole de la potasse (milliers de tonnes)</t>
+    <t>Agricultural use of nutrient potash (thousands of tonnes)</t>
+  </si>
+  <si>
+    <t>Utilisation de potasse nutritif à des fins agricoles (milliers de tonnes)</t>
   </si>
   <si>
     <t>HlthExpPGD</t>
@@ -2352,70 +2192,124 @@
     <t>CO2 equivalent emissions (kt) from transport</t>
   </si>
   <si>
-    <t>Émissions d'équivalent CO2 (kt) du Transport</t>
+    <t>Émissions d'équivalent CO2 (kt) du transport</t>
+  </si>
+  <si>
+    <t>RESIDENT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from residential</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) du secteur résidentiel</t>
+  </si>
+  <si>
+    <t>COMMPUB</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from commercial and public services</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des services commerciaux et publics</t>
+  </si>
+  <si>
+    <t>AGRICULT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from agriculture/forestry</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de l'agriculture/foresterie</t>
+  </si>
+  <si>
+    <t>FISHING</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from fishing</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la pêche</t>
+  </si>
+  <si>
+    <t>ONONSPEC</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from final consumption not elsewhere specified</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la consommation finale non spécifiée ailleurs</t>
+  </si>
+  <si>
+    <t>ELECHEAT</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from electricity and heat production</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) de la production d'électricité et de chaleur</t>
   </si>
   <si>
     <t>ROAD</t>
   </si>
   <si>
-    <t>CO2 equivalent emissions (kt) from road</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) des routes</t>
-  </si>
-  <si>
-    <t>RESIDENT</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from residential</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) du secteur résidentiel</t>
-  </si>
-  <si>
-    <t>COMMPUB</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from commercial and public services</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) des services commerciaux et publics</t>
-  </si>
-  <si>
-    <t>AGRICULT</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from agriculture/forestry</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) de l'agriculture/foresterie</t>
-  </si>
-  <si>
-    <t>FISHING</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from fishing</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) de la pêche</t>
-  </si>
-  <si>
-    <t>ONONSPEC</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from final consumption not elsewhere specified</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) de la consommation finale non spécifiée ailleurs</t>
-  </si>
-  <si>
-    <t>ELECHEAT</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from electricity and heat production</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) de la production d'électricité et de chaleur</t>
+    <t>CO2 equivalent emissions (kt) from roads (included within transport)</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des routes (incluses dans les transports)</t>
+  </si>
+  <si>
+    <t>ElecAccPop</t>
+  </si>
+  <si>
+    <t>Population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccUrbPop</t>
+  </si>
+  <si>
+    <t>Urban population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population urbaine ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccRurPop</t>
+  </si>
+  <si>
+    <t>Rural population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population rurale ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccPct</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population ayant accès à l'électricité</t>
+  </si>
+  <si>
+    <t>ElecAccUrbPct</t>
+  </si>
+  <si>
+    <t>Percentage of urban population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population urbaine ayant accès à l'électricité</t>
+  </si>
+  <si>
+    <t>ElecAccRurPct</t>
+  </si>
+  <si>
+    <t>Percentage of rural population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population rurale ayant accès à l'électricité</t>
   </si>
   <si>
     <t>PUBFINSOLAR</t>
@@ -2481,15 +2375,6 @@
     <t>Flux publics vers le nucléaire en millions de dollars US de 2020</t>
   </si>
   <si>
-    <t>PUBFINPUMP</t>
-  </si>
-  <si>
-    <t>Public flows into pumped storage in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers le stockage pompage-turbinage en millions de dollars US de 2020</t>
-  </si>
-  <si>
     <t>PUBFINFOSS</t>
   </si>
   <si>
@@ -2502,7 +2387,7 @@
     <t>ELECCAPSOLAR</t>
   </si>
   <si>
-    <t>Electric power capacity solar power in megawatts (MW)</t>
+    <t>Electric power capacity from solar power in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique solaire en mégawatts (MW)</t>
@@ -2511,7 +2396,7 @@
     <t>ELECCAPWIND</t>
   </si>
   <si>
-    <t>Electric power capacity wind power in megawatts (MW)</t>
+    <t>Electric power capacity from wind power in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique éolienne en mégawatts (MW)</t>
@@ -2520,7 +2405,7 @@
     <t>ELECCAPGEO</t>
   </si>
   <si>
-    <t>Electric power capacity geothermal energy in megawatts (MW)</t>
+    <t>Electric power capacity from geothermal energy in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique géothermique en mégawatts (MW)</t>
@@ -2529,7 +2414,7 @@
     <t>ELECCAPHYDRO</t>
   </si>
   <si>
-    <t>Electric power capacity renewable hydropower in megawatts (MW)</t>
+    <t>Electric power capacity from renewable hydropower in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique hydroélectrique renouvelable en mégawatts (MW)</t>
@@ -2547,7 +2432,7 @@
     <t>ELECCAPOTHREN</t>
   </si>
   <si>
-    <t>Electric power capacityrenewable energy n.e.s. in megawatts (MW)</t>
+    <t>Electric power capacity of renewable energy n.e.s. in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique renouvelables n.d.a. en mégawatts (MW)</t>
@@ -2556,7 +2441,7 @@
     <t>ELECCAPNUCL</t>
   </si>
   <si>
-    <t>Electric power capacity nuclear power in megawatts (MW)</t>
+    <t>Electric power capacity of nuclear power in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique nucléaire en mégawatts (MW)</t>
@@ -2565,7 +2450,7 @@
     <t>ELECCAPPUMP</t>
   </si>
   <si>
-    <t>Electric power capacity pumped storage in megawatts (MW)</t>
+    <t>Electric power capacity of pumped storage in megawatts (MW)</t>
   </si>
   <si>
     <t>Capacité d'énergie électrique du pompage-turbinage en mégawatts (MW)</t>
@@ -2583,7 +2468,7 @@
     <t>ELECGENSOLAR</t>
   </si>
   <si>
-    <t>Electric power generation solar power in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from solar power in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique solaire en gigawattheures (GWh)</t>
@@ -2592,7 +2477,7 @@
     <t>ELECGENWIND</t>
   </si>
   <si>
-    <t>Electric power generation wind power in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from wind power in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique éolienne en GigaWattheures (GWh)</t>
@@ -2601,7 +2486,7 @@
     <t>ELECGENGEO</t>
   </si>
   <si>
-    <t>Electric power generation geothermal energy in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from geothermal energy in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique géothermique en GigaWattheures (GWh)</t>
@@ -2610,7 +2495,7 @@
     <t>ELECGENHYDRO</t>
   </si>
   <si>
-    <t>Electric power generation renewable hydropower in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from renewable hydropower in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie hydroélectrique renouvelable en gigawattheures (GWh)</t>
@@ -2619,7 +2504,7 @@
     <t>ELECGENBIOF</t>
   </si>
   <si>
-    <t>Electric power generation from biofuels in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from biofuels in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique à partir de biocarburants en gigawattheures (GWh)</t>
@@ -2628,7 +2513,7 @@
     <t>ELECGENOTHREN</t>
   </si>
   <si>
-    <t>Electric power generationrenewable energy n.e.s. in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from renewable energy n.e.s. in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique renouvelables n.d.a. en gigawattheures (GWh)</t>
@@ -2637,7 +2522,7 @@
     <t>ELECGENNUCL</t>
   </si>
   <si>
-    <t>Electric power generation nuclear power in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from nuclear power in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique nucléaire en GigaWattheures (GWh)</t>
@@ -2646,7 +2531,7 @@
     <t>ELECGENPUMP</t>
   </si>
   <si>
-    <t>Electric power generation pumped storage in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from pumped storage in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique par pompage-turbinage en gigawattheures (GWh)</t>
@@ -2655,516 +2540,12 @@
     <t>ELECGENFOSS</t>
   </si>
   <si>
-    <t>Electric power generation from fossil fuels in GigaWatt hours (GWh)</t>
+    <t>Electricity generation from fossil fuels in gigawatt-hours (GWh)</t>
   </si>
   <si>
     <t>Production d'énergie électrique à partir de combustibles fossiles en gigawattheures (GWh)</t>
   </si>
   <si>
-    <t>gexp</t>
-  </si>
-  <si>
-    <t>Gross exports (dc+fc, millions of USD)</t>
-  </si>
-  <si>
-    <t>Exportations brutes (dc+fc, millions de dollars US)</t>
-  </si>
-  <si>
-    <t>gvc</t>
-  </si>
-  <si>
-    <t>GVC exports (value of production crossing more than one border, gvcb+gvcf, millions of USD)</t>
-  </si>
-  <si>
-    <t>Exportations CVM (valeur de la production traversant plus d'une frontière, gvcb + gvcf, millions de dollars US)</t>
-  </si>
-  <si>
-    <t>gvcb</t>
-  </si>
-  <si>
-    <t>GVC backward participation (foreign and domestic value in imported inputs that are re-exported, millions of USD)</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (valeur étrangère et nationale des intrants importés réexportés, millions de dollars US)</t>
-  </si>
-  <si>
-    <t>gvcf</t>
-  </si>
-  <si>
-    <t>GVC forward participation (value of domestic productions re-exported by the bilateral partners, millions of USD)</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (valeur des productions nationales réexportées par les partenaires bilatéraux, millions de dollars US)</t>
-  </si>
-  <si>
-    <t>gvcb01</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Agriculture</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Agriculture</t>
-  </si>
-  <si>
-    <t>gvcb02</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Fishing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Pêche</t>
-  </si>
-  <si>
-    <t>gvcb03</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Mines et carrières</t>
-  </si>
-  <si>
-    <t>gvcb04</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Food &amp; Beverages</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Alimentation et boissons</t>
-  </si>
-  <si>
-    <t>gvcb05</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Textiles and Wearing Apparel</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Textiles et vêtements</t>
-  </si>
-  <si>
-    <t>gvcb06</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Wood and Paper</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Bois et papier</t>
-  </si>
-  <si>
-    <t>gvcb07</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Petroleum, Chemical and Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Produits pétroliers, chimiques et minéraux non métalliques</t>
-  </si>
-  <si>
-    <t>gvcb08</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Metal Products</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Produits métalliques</t>
-  </si>
-  <si>
-    <t>gvcb09</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Electrical and Machinery</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Électricité et machinerie</t>
-  </si>
-  <si>
-    <t>gvcb10</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Transport Equipment</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Équipement de transport</t>
-  </si>
-  <si>
-    <t>gvcb11</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Autres industries manufacturières</t>
-  </si>
-  <si>
-    <t>gvcb12</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Recycling</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Recyclage</t>
-  </si>
-  <si>
-    <t>gvcb13</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Electricity, Gas and Water</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Électricité, gaz et eau</t>
-  </si>
-  <si>
-    <t>gvcb14</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Construction</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Construction</t>
-  </si>
-  <si>
-    <t>gvcb15</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Maintenance and Repair</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Maintenance et réparation</t>
-  </si>
-  <si>
-    <t>gvcb16</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Commerce de gros</t>
-  </si>
-  <si>
-    <t>gvcb17</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Retail Trade</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Commerce de détail</t>
-  </si>
-  <si>
-    <t>gvcb18</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Hôtels et Restaurants</t>
-  </si>
-  <si>
-    <t>gvcb19</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Transport</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Transport</t>
-  </si>
-  <si>
-    <t>gvcb20</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Postes et télécommunications</t>
-  </si>
-  <si>
-    <t>gvcb21</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Financial Intermediation and Business Activities</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Intermédiation financière et activités commerciales</t>
-  </si>
-  <si>
-    <t>gvcb22</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Public Administration</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Administration publique</t>
-  </si>
-  <si>
-    <t>gvcb23</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Education, Health and Other Services</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Éducation, santé et autres services</t>
-  </si>
-  <si>
-    <t>gvcb24</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Private Households</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Ménages privés</t>
-  </si>
-  <si>
-    <t>gvcb25</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Others</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - Autres</t>
-  </si>
-  <si>
-    <t>gvcb26</t>
-  </si>
-  <si>
-    <t>GVC backward participation (millions of USD) - Re-export &amp; Re-import</t>
-  </si>
-  <si>
-    <t>Participation en amont aux CVM (millions de dollars US) - réexportation et réimportation</t>
-  </si>
-  <si>
-    <t>gvcf01</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Agriculture</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Agriculture</t>
-  </si>
-  <si>
-    <t>gvcf02</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Fishing</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Pêche</t>
-  </si>
-  <si>
-    <t>gvcf03</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Mines et Carrières</t>
-  </si>
-  <si>
-    <t>gvcf04</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Food &amp; Beverages</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Alimentation et boissons</t>
-  </si>
-  <si>
-    <t>gvcf05</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Textiles and Wearing Apparel</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Textiles et vêtements</t>
-  </si>
-  <si>
-    <t>gvcf06</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Wood and Paper</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Bois et papier</t>
-  </si>
-  <si>
-    <t>gvcf07</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Petroleum, Chemical and Non-Metallic Mineral Products</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Produits pétroliers, chimiques et minéraux non métalliques</t>
-  </si>
-  <si>
-    <t>gvcf08</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Metal Products</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Produits métalliques</t>
-  </si>
-  <si>
-    <t>gvcf09</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Electrical and Machinery</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Électricité et machinerie</t>
-  </si>
-  <si>
-    <t>gvcf10</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Transport Equipment</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Équipement de transport</t>
-  </si>
-  <si>
-    <t>gvcf11</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Other Manufacturing</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Autres industries manufacturières</t>
-  </si>
-  <si>
-    <t>gvcf12</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Recycling</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Recyclage</t>
-  </si>
-  <si>
-    <t>gvcf13</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Electricity, Gas and Water</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Électricité, gaz et eau</t>
-  </si>
-  <si>
-    <t>gvcf14</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Construction</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Construction</t>
-  </si>
-  <si>
-    <t>gvcf15</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Maintenance and Repair</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Maintenance et réparation</t>
-  </si>
-  <si>
-    <t>gvcf16</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Wholesale Trade</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Commerce de gros</t>
-  </si>
-  <si>
-    <t>gvcf17</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Retail Trade</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Commerce de détail</t>
-  </si>
-  <si>
-    <t>gvcf18</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Hotels and Restaurants</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Hôtels et Restaurants</t>
-  </si>
-  <si>
-    <t>gvcf19</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Transport</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Transport</t>
-  </si>
-  <si>
-    <t>gvcf20</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Post and Telecommunications</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Postes et télécommunications</t>
-  </si>
-  <si>
-    <t>gvcf21</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Financial Intermediation and Business Activities</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Intermédiation financière et activités commerciales</t>
-  </si>
-  <si>
-    <t>gvcf22</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Public Administration</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Administration publique</t>
-  </si>
-  <si>
-    <t>gvcf23</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Education, Health and Other Services</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Éducation, santé et autres services</t>
-  </si>
-  <si>
-    <t>gvcf24</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Private Households</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Ménages privés</t>
-  </si>
-  <si>
-    <t>gvcf25</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Others</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - Autres</t>
-  </si>
-  <si>
-    <t>gvcf26</t>
-  </si>
-  <si>
-    <t>GVC forward participation (millions of USD) - Re-export &amp; Re-import</t>
-  </si>
-  <si>
-    <t>Participation en aval aux CVM (millions de dollars US) - réexportation et réimportation</t>
-  </si>
-  <si>
     <t>VASameCtry</t>
   </si>
   <si>
@@ -3496,6 +2877,231 @@
   </si>
   <si>
     <t>Nombre de certificats de systèmes de management de l'énergie ISO 50001</t>
+  </si>
+  <si>
+    <t>ENVPDNMABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, premature deaths</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés</t>
+  </si>
+  <si>
+    <t>ENVPDPMABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPTABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, premature deaths (% of total)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, décés prématurés (% du total)</t>
+  </si>
+  <si>
+    <t>ENVWFPCABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, welfare cost of premature deaths (USD per capita)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (dollars US par habitant)</t>
+  </si>
+  <si>
+    <t>ENVWFPGABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, welfare cost of premature deaths (% of GDP)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (% of GDP)</t>
+  </si>
+  <si>
+    <t>ENVWFPTABPAR</t>
+  </si>
+  <si>
+    <t>Ambient particulate matter, welfare cost of premature deaths (% of total)</t>
+  </si>
+  <si>
+    <t>Particules dans l'air ambiant, coûts en bien-être des décés prématurés (% du total)</t>
+  </si>
+  <si>
+    <t>ENVPDNMHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), premature deaths</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés</t>
+  </si>
+  <si>
+    <t>ENVPDPMHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), premature deaths (% of total)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (% du total)</t>
+  </si>
+  <si>
+    <t>ENVPDPTHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVWFPCHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), welfare cost of premature deaths (USD per capita)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (dollars US par habitant)</t>
+  </si>
+  <si>
+    <t>ENVWFPGHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of GDP)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (% of GDP)</t>
+  </si>
+  <si>
+    <t>ENVWFPTHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), welfare cost of premature deaths (% of total)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), coûts en bien-être des décés prématurés (% du total)</t>
+  </si>
+  <si>
+    <t>ENVPDPMAMBOZ</t>
+  </si>
+  <si>
+    <t>Ambient Ozone, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Ozone troposphérique, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMHGTMP</t>
+  </si>
+  <si>
+    <t>High temperature, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Température élevée, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMLWTMP</t>
+  </si>
+  <si>
+    <t>Low temperature, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Basse température, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMLEAD</t>
+  </si>
+  <si>
+    <t>Lead, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Plomb, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMRSRAD</t>
+  </si>
+  <si>
+    <t>Residential radon, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Radon domestique, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMUSFWT</t>
+  </si>
+  <si>
+    <t>Unsafe water source, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Source d'eau insalubre, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMUSFST</t>
+  </si>
+  <si>
+    <t>Unsafe sanitation, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Assainissement dangereux, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMHDWSH</t>
+  </si>
+  <si>
+    <t>Handwashing facilities, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Installations de lavage des mains, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMOCPAR</t>
+  </si>
+  <si>
+    <t>Occupational air pollution, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air présente au travail, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMOCCAR</t>
+  </si>
+  <si>
+    <t>Occupational carcinogens, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Cancérigens présents au travail, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMSHSMK</t>
+  </si>
+  <si>
+    <t>Second-hand smoke, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Tabagisme passif, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMHGRMT</t>
+  </si>
+  <si>
+    <t>Diet high in red meat, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Alimentation riche en viande rouge, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>ENVPDPMHGPMT</t>
+  </si>
+  <si>
+    <t>Diet high in processed meat, premature deaths (per million population)</t>
+  </si>
+  <si>
+    <t>Alimentation riche en viande transformée&lt;, décés prématurés (par million d'habitants)</t>
   </si>
 </sst>
 </file>
@@ -3855,12 +3461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E8FEFA-70CC-4555-AB67-10B9006FF89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E2C73-3271-4CA8-9A93-10330168B3EC}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4997,136 +4603,136 @@
         <v>306</v>
       </c>
       <c r="B103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" t="s">
         <v>307</v>
-      </c>
-      <c r="C103" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>308</v>
+      </c>
+      <c r="B104" t="s">
         <v>309</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>310</v>
-      </c>
-      <c r="C104" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" t="s">
         <v>312</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>313</v>
-      </c>
-      <c r="C105" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" t="s">
         <v>315</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>316</v>
-      </c>
-      <c r="C106" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" t="s">
         <v>318</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>319</v>
-      </c>
-      <c r="C107" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
         <v>321</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>322</v>
-      </c>
-      <c r="C108" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
         <v>324</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>325</v>
-      </c>
-      <c r="C109" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" t="s">
         <v>327</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>328</v>
-      </c>
-      <c r="C110" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
         <v>330</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>331</v>
-      </c>
-      <c r="C111" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
         <v>333</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>334</v>
-      </c>
-      <c r="C112" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
         <v>336</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>337</v>
-      </c>
-      <c r="C113" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
         <v>339</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>340</v>
-      </c>
-      <c r="C114" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
         <v>342</v>
@@ -7621,491 +7227,8 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C361" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C368" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C371" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C373" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C374" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C375" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C378" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1153</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C286" xr:uid="{00000000-0001-0000-0D00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AfDD_DDAf_2023_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2023_TabIndsCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8658323B-32B1-49AD-9E9C-0D4229CAD0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FBF9ED-0FC2-464D-ABA5-FFBE0B81CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{EC7BAAC1-E410-4643-8FF9-4D77ABF8789C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B693EDE6-F349-4EAD-AF5B-FF7FBFAB2B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="1088">
   <si>
     <t>IndCode</t>
   </si>
@@ -344,7 +344,7 @@
     <t>Pourcentage de travailleurs ayant un emploi vulnérable</t>
   </si>
   <si>
-    <t>Employees</t>
+    <t>EmployeesRate</t>
   </si>
   <si>
     <t>Percentage of workers aged 15+ classified as employees</t>
@@ -353,7 +353,7 @@
     <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme salariés</t>
   </si>
   <si>
-    <t>Employers</t>
+    <t>EmployersRate</t>
   </si>
   <si>
     <t>Percentage of workers aged 15+ classified as employers</t>
@@ -362,7 +362,7 @@
     <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme employeurs</t>
   </si>
   <si>
-    <t>OwnAccount</t>
+    <t>OwnAccountRate</t>
   </si>
   <si>
     <t>Percentage of workers aged 15+ classified as own-account workers</t>
@@ -371,7 +371,7 @@
     <t>Pourcentage de travailleurs âgés de 15 ans et plus classés comme travailleurs à leur propre compte</t>
   </si>
   <si>
-    <t>ContribFamily</t>
+    <t>ContribFamRate</t>
   </si>
   <si>
     <t>Percentage of workers aged 15+ classified as contributing family workers</t>
@@ -971,7 +971,7 @@
     <t>Soutien sociale</t>
   </si>
   <si>
-    <t>CnsExp</t>
+    <t>CnsExpPGD</t>
   </si>
   <si>
     <t>Final consumption expenditure as a % of GDP</t>
@@ -980,7 +980,7 @@
     <t>Dépense de consommation finale</t>
   </si>
   <si>
-    <t>GFCF</t>
+    <t>GFCFPGD</t>
   </si>
   <si>
     <t>Gross fixed capital formation as a % of GDP</t>
@@ -989,7 +989,7 @@
     <t>Formation brute de capital fixe</t>
   </si>
   <si>
-    <t>InvChg</t>
+    <t>InvChgPGD</t>
   </si>
   <si>
     <t>Changes in inventories as a % of GDP</t>
@@ -998,7 +998,7 @@
     <t>Variations des stocks</t>
   </si>
   <si>
-    <t>FrgnBal</t>
+    <t>FrgnBalPGD</t>
   </si>
   <si>
     <t>Foreign balance as a % of GDP</t>
@@ -1007,7 +1007,7 @@
     <t>Balance extérieur</t>
   </si>
   <si>
-    <t>ImpGdsSrv</t>
+    <t>ImpGdsSrvPGD</t>
   </si>
   <si>
     <t>Imports of goods and services as a % of GDP</t>
@@ -1016,7 +1016,7 @@
     <t>Importations de biens et services</t>
   </si>
   <si>
-    <t>ExpGdsSrv</t>
+    <t>ExpGdsSrvPGD</t>
   </si>
   <si>
     <t>Exports of goods and services as a % of GDP</t>
@@ -1628,15 +1628,6 @@
     <t>Investissement des administrations publiques (formation brute de capital fixe) (millions de dollars US)</t>
   </si>
   <si>
-    <t>IPPPUSD</t>
-  </si>
-  <si>
-    <t>Public-private partnership (PPP) investment (millions of USD)</t>
-  </si>
-  <si>
-    <t>Investissement en partenariat public-privé (PPP) (millions de dollars US)</t>
-  </si>
-  <si>
     <t>IPRIVUSD</t>
   </si>
   <si>
@@ -1826,15 +1817,6 @@
     <t>Terres forestières (milliers d'ha)</t>
   </si>
   <si>
-    <t>InlndWtrs</t>
-  </si>
-  <si>
-    <t>Inland waters (thousands of ha)</t>
-  </si>
-  <si>
-    <t>Eaux intérieures (milliers d'ha)</t>
-  </si>
-  <si>
     <t>CarbStock</t>
   </si>
   <si>
@@ -1916,15 +1898,6 @@
     <t>Production agricole (millions de dollars US)</t>
   </si>
   <si>
-    <t>CerealProd</t>
-  </si>
-  <si>
-    <t>Cereal Production (millions of USD)</t>
-  </si>
-  <si>
-    <t>Production céréalière (millions de dollars US)</t>
-  </si>
-  <si>
     <t>AgFoodProd</t>
   </si>
   <si>
@@ -2195,6 +2168,15 @@
     <t>Émissions d'équivalent CO2 (kt) du transport</t>
   </si>
   <si>
+    <t>ROAD</t>
+  </si>
+  <si>
+    <t>CO2 equivalent emissions (kt) from roads (included within transport)</t>
+  </si>
+  <si>
+    <t>Émissions d'équivalent CO2 (kt) des routes (incluses dans les transports)</t>
+  </si>
+  <si>
     <t>RESIDENT</t>
   </si>
   <si>
@@ -2240,6 +2222,60 @@
     <t>Émissions d'équivalent CO2 (kt) de la consommation finale non spécifiée ailleurs</t>
   </si>
   <si>
+    <t>ElecAccPop</t>
+  </si>
+  <si>
+    <t>Population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccUrbPop</t>
+  </si>
+  <si>
+    <t>Urban population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population urbaine ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccRurPop</t>
+  </si>
+  <si>
+    <t>Rural population with access to electricity (thousands)</t>
+  </si>
+  <si>
+    <t>Population rurale ayant accès à l'électricité (milliers)</t>
+  </si>
+  <si>
+    <t>ElecAccPct</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population ayant accès à l'électricité</t>
+  </si>
+  <si>
+    <t>ElecAccUrbPct</t>
+  </si>
+  <si>
+    <t>Percentage of urban population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population urbaine ayant accès à l'électricité</t>
+  </si>
+  <si>
+    <t>ElecAccRurPct</t>
+  </si>
+  <si>
+    <t>Percentage of rural population with access to electricity</t>
+  </si>
+  <si>
+    <t>Pourcentage de la population rurale ayant accès à l'électricité</t>
+  </si>
+  <si>
     <t>ELECHEAT</t>
   </si>
   <si>
@@ -2249,69 +2285,6 @@
     <t>Émissions d'équivalent CO2 (kt) de la production d'électricité et de chaleur</t>
   </si>
   <si>
-    <t>ROAD</t>
-  </si>
-  <si>
-    <t>CO2 equivalent emissions (kt) from roads (included within transport)</t>
-  </si>
-  <si>
-    <t>Émissions d'équivalent CO2 (kt) des routes (incluses dans les transports)</t>
-  </si>
-  <si>
-    <t>ElecAccPop</t>
-  </si>
-  <si>
-    <t>Population with access to electricity (thousands)</t>
-  </si>
-  <si>
-    <t>Population ayant accès à l'électricité (milliers)</t>
-  </si>
-  <si>
-    <t>ElecAccUrbPop</t>
-  </si>
-  <si>
-    <t>Urban population with access to electricity (thousands)</t>
-  </si>
-  <si>
-    <t>Population urbaine ayant accès à l'électricité (milliers)</t>
-  </si>
-  <si>
-    <t>ElecAccRurPop</t>
-  </si>
-  <si>
-    <t>Rural population with access to electricity (thousands)</t>
-  </si>
-  <si>
-    <t>Population rurale ayant accès à l'électricité (milliers)</t>
-  </si>
-  <si>
-    <t>ElecAccPct</t>
-  </si>
-  <si>
-    <t>Percentage of population with access to electricity</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population ayant accès à l'électricité</t>
-  </si>
-  <si>
-    <t>ElecAccUrbPct</t>
-  </si>
-  <si>
-    <t>Percentage of urban population with access to electricity</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population urbaine ayant accès à l'électricité</t>
-  </si>
-  <si>
-    <t>ElecAccRurPct</t>
-  </si>
-  <si>
-    <t>Percentage of rural population with access to electricity</t>
-  </si>
-  <si>
-    <t>Pourcentage de la population rurale ayant accès à l'électricité</t>
-  </si>
-  <si>
     <t>PUBFINSOLAR</t>
   </si>
   <si>
@@ -2852,31 +2825,184 @@
     <t>Coût moyen du commerce avec les pays hors du groupe de pays en % de la valeur des marchandises, produits primaires</t>
   </si>
   <si>
-    <t>ISO9001</t>
-  </si>
-  <si>
-    <t>Number of ISO 9001 quality management systems certificates</t>
-  </si>
-  <si>
-    <t>Nombre de certificats de systèmes de management de la qualité ISO 9001</t>
-  </si>
-  <si>
-    <t>ISO14001</t>
-  </si>
-  <si>
-    <t>Number of ISO 14001 environmental management systems certificates</t>
-  </si>
-  <si>
-    <t>Nombre de certificats de systèmes de management environnemental ISO 14001</t>
-  </si>
-  <si>
-    <t>ISO50001</t>
-  </si>
-  <si>
-    <t>Number of ISO 50001 energy management systems certificates</t>
-  </si>
-  <si>
-    <t>Nombre de certificats de systèmes de management de l'énergie ISO 50001</t>
+    <t>NatCapLD</t>
+  </si>
+  <si>
+    <t>National wealth, agricultural lands (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres agricoles (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapCO</t>
+  </si>
+  <si>
+    <t>National wealth, coal (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, charbon (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapCL</t>
+  </si>
+  <si>
+    <t>National wealth, cropland (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres cultivées (en milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapFS</t>
+  </si>
+  <si>
+    <t>National wealth, fisheries (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pêche (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapFE</t>
+  </si>
+  <si>
+    <t>National wealth, forests - ecosystem services (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - services écosystémiques (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapFT</t>
+  </si>
+  <si>
+    <t>National wealth, forests - timber (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - bois (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapEN</t>
+  </si>
+  <si>
+    <t>National wealth, fossil fuel energy (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, énergie fossile (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapHC</t>
+  </si>
+  <si>
+    <t>National wealth, human capital (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital humain (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapMA</t>
+  </si>
+  <si>
+    <t>National wealth, mangroves (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, mangroves (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapMN</t>
+  </si>
+  <si>
+    <t>National wealth, metals and minerals (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, métaux et minéraux (en milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapNK</t>
+  </si>
+  <si>
+    <t>National wealth, natural capital (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapSS</t>
+  </si>
+  <si>
+    <t>National wealth, natural capital - nonrenewable (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - non renouvelable (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapRN</t>
+  </si>
+  <si>
+    <t>National wealth, natural capital - renewable (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - renouvelable (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapGS</t>
+  </si>
+  <si>
+    <t>National wealth, natural gas (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, gaz naturel (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapFA</t>
+  </si>
+  <si>
+    <t>National wealth, net foreign assets (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, avoirs extérieurs nets (en milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapOL</t>
+  </si>
+  <si>
+    <t>National wealth, oil (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pétrole (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapPS</t>
+  </si>
+  <si>
+    <t>National wealth, pastureland (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pâturages (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapPK</t>
+  </si>
+  <si>
+    <t>National wealth, produced capital (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital produit (en milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapPA</t>
+  </si>
+  <si>
+    <t>National wealth, protected areas (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, aires protégées (milliards de dollars internationaux constants de 2018)</t>
+  </si>
+  <si>
+    <t>NatCapTW</t>
+  </si>
+  <si>
+    <t>National wealth, total wealth (billions of constant 2018 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, richesse totale (en milliards de dollars internationaux constants de 2018)</t>
   </si>
   <si>
     <t>ENVPDNMABPAR</t>
@@ -2942,18 +3068,18 @@
     <t>Pollution de l'air des ménages (combustibles solides), décés prématurés</t>
   </si>
   <si>
+    <t>ENVPDPTHHAIR</t>
+  </si>
+  <si>
+    <t>HH air pollution (solid fuels), premature deaths (% of total)</t>
+  </si>
+  <si>
+    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (% du total)</t>
+  </si>
+  <si>
     <t>ENVPDPMHHAIR</t>
   </si>
   <si>
-    <t>HH air pollution (solid fuels), premature deaths (% of total)</t>
-  </si>
-  <si>
-    <t>Pollution de l'air des ménages (combustibles solides), décés prématurés (% du total)</t>
-  </si>
-  <si>
-    <t>ENVPDPTHHAIR</t>
-  </si>
-  <si>
     <t>HH air pollution (solid fuels), premature deaths (per million population)</t>
   </si>
   <si>
@@ -3102,6 +3228,78 @@
   </si>
   <si>
     <t>Alimentation riche en viande transformée&lt;, décés prématurés (par million d'habitants)</t>
+  </si>
+  <si>
+    <t>InformRateAll</t>
+  </si>
+  <si>
+    <t>Percentage of informal employment in total employment</t>
+  </si>
+  <si>
+    <t>Pourcentage de l'emploi informel dans l'emploi total</t>
+  </si>
+  <si>
+    <t>InformRateFem</t>
+  </si>
+  <si>
+    <t>Percentage of informal employment in total employment, females</t>
+  </si>
+  <si>
+    <t>Pourcentage de l'emploi informel dans l'emploi total, femmes</t>
+  </si>
+  <si>
+    <t>InformRateMal</t>
+  </si>
+  <si>
+    <t>Percentage of informal employment in total employment, males</t>
+  </si>
+  <si>
+    <t>Pourcentage de l'emploi informel dans l'emploi total, hommes</t>
+  </si>
+  <si>
+    <t>WBInfDGE</t>
+  </si>
+  <si>
+    <t>Dynamic general equilibrium model-based (DGE) estimates of informal output (% of GDP)</t>
+  </si>
+  <si>
+    <t>Estimations dynamiques basées sur un modèle d'équilibre général (DGE) de la production informelle (% du PIB)</t>
+  </si>
+  <si>
+    <t>WBInfMIMIC</t>
+  </si>
+  <si>
+    <t>Multiple indicators multiple causes model-based (MIMIC) estimates of informal output (% of GDP)</t>
+  </si>
+  <si>
+    <t>Estimations de la production informelle basées sur un modèle à causes multiples et à indicateurs multiples (MIMIC) (% du PIB)</t>
+  </si>
+  <si>
+    <t>WBInfCmpInf</t>
+  </si>
+  <si>
+    <t>Percent of firms competing against unregistered or informal firms</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises en concurrence avec des entreprises non enregistrées ou informelles</t>
+  </si>
+  <si>
+    <t>WBInfFrmReg</t>
+  </si>
+  <si>
+    <t>Percent of firms formally registered when they started operations in the country</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises officiellement enregistrées lorsqu'elles ont démarré leurs activités dans le pays</t>
+  </si>
+  <si>
+    <t>WBInfCmpCnst</t>
+  </si>
+  <si>
+    <t>Percent of firms identifying practices of competitors in the informal sector as a constraint</t>
+  </si>
+  <si>
+    <t>Pourcentage d'entreprises identifiant les pratiques des concurrents dans le secteur informel comme une contrainte</t>
   </si>
 </sst>
 </file>
@@ -3461,12 +3659,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E2C73-3271-4CA8-9A93-10330168B3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915B58B5-F462-4AB7-85DE-CCDC52838B85}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5425,1810 +5623,2063 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B178" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C178" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B179" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C179" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B180" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C180" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B181" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C181" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B182" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C182" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B183" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C183" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B184" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B185" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C185" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B186" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C186" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B187" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C187" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B188" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C188" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B189" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C189" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B190" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C190" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B191" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C191" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B192" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C192" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B193" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C193" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B194" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C194" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B195" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C195" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B196" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C196" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B197" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C197" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B198" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C198" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B199" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C199" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B200" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C200" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B201" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C201" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B202" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C202" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B203" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C203" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B204" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C204" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B205" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C205" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B206" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C206" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B207" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C207" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B208" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C208" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B209" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C209" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B210" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C210" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B211" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C211" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B212" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C212" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B213" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C213" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B214" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C214" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B215" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C215" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B216" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C216" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B217" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C217" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B218" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B219" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C219" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B220" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C220" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B221" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C221" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B222" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C222" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B223" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C223" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B224" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C224" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B225" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C225" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B226" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C226" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B227" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C227" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B228" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C228" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B229" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C229" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B230" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C230" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B231" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C231" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B232" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C232" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B233" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C233" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B234" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C234" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B235" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C235" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B236" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C236" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B237" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C237" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B238" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C238" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B239" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C239" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B240" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C240" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B241" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C241" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B242" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C242" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B243" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C243" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B244" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C244" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B245" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C245" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B246" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C246" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B247" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C247" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B248" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C248" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B249" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C249" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B250" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C250" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B251" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C251" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B252" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C252" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B253" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C253" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B254" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C254" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B255" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C255" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B256" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C256" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B257" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C257" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B258" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C258" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B259" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C259" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B260" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C260" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B261" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C261" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B262" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C262" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B263" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C263" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="B264" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C264" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B265" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C265" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B266" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C266" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B267" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C267" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B268" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C268" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B269" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C269" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B270" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C270" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B271" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C271" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B272" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C272" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B273" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C273" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B274" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C274" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B275" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C275" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B276" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C276" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B277" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C277" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B278" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C278" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B279" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C279" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B280" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C280" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B281" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C281" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B282" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C282" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B283" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C283" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B284" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C284" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B285" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C285" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B286" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C286" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B287" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C287" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B288" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C288" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B289" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C289" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B290" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C290" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B291" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C291" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B292" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C292" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B293" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C293" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B294" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C294" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B295" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C295" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B296" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C296" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B297" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C297" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B298" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C298" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B299" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C299" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B300" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C300" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B301" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C301" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B302" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C302" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B303" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C303" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B304" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C304" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B305" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C305" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B306" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C306" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B307" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C307" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B308" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C308" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B309" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C309" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B310" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C310" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B311" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C311" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B312" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C312" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B313" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C313" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B314" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C314" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B315" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C315" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B316" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C316" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B317" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C317" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B318" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C318" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B319" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C319" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B320" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C320" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B321" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C321" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B322" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C322" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B323" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C323" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B324" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C324" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B325" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C325" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B326" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C326" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B327" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C327" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B328" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C328" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B329" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C329" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B330" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C330" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B331" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C331" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B332" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C332" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B333" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C333" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B334" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C334" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B335" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C335" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B336" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C336" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B337" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C337" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B338" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C338" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B339" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C339" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B340" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C340" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
         <v>1019</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>1020</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C342" t="s">
         <v>1021</v>
       </c>
     </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1087</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C286" xr:uid="{00000000-0001-0000-0D00-000000000000}"/>
+  <autoFilter ref="A1:C364" xr:uid="{00000000-0001-0000-0D00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AfDD_DDAf_2023_TabIndsCodes.xlsx
+++ b/AfDD_DDAf_2023_TabIndsCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FBF9ED-0FC2-464D-ABA5-FFBE0B81CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4115225C-5FC1-4BB1-AC83-5BB5760E1CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B693EDE6-F349-4EAD-AF5B-FF7FBFAB2B7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{AE7A7BE1-0FC8-4A25-B482-7BD763F126C9}"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2023_TabIndsCodes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_TabIndsCodes!$A$1:$C$286</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1073,7 +1073,7 @@
     <t>GovRevUSD</t>
   </si>
   <si>
-    <t>General government revenue (millions of USD), 2021</t>
+    <t>General government revenue (millions of USD)</t>
   </si>
   <si>
     <t>Recettes des administrations publiques (millions de dollars US)</t>
@@ -1082,7 +1082,7 @@
     <t>TaxUSD</t>
   </si>
   <si>
-    <t>General government taxes (millions of USD), 2021</t>
+    <t>General government taxes (millions of USD)</t>
   </si>
   <si>
     <t>Impôts des administrations publiques (millions de dollars US)</t>
@@ -1091,7 +1091,7 @@
     <t>GovGrantsUSD</t>
   </si>
   <si>
-    <t>General government revenue, grants (millions of USD), 2021</t>
+    <t>General government revenue, grants (millions of USD)</t>
   </si>
   <si>
     <t>Recettes des administrations publiques, dons (millions de dollars US)</t>
@@ -1100,7 +1100,7 @@
     <t>GovExpendUSD</t>
   </si>
   <si>
-    <t>General government expenditure (millions of USD), 2021</t>
+    <t>General government expenditure (millions of USD)</t>
   </si>
   <si>
     <t>Total des dépenses des administrations publiques (millions de dollars US)</t>
@@ -1109,7 +1109,7 @@
     <t>GovGrossDebtUSD</t>
   </si>
   <si>
-    <t>General government gross debt (millions of USD), 2021</t>
+    <t>General government gross debt (millions of USD)</t>
   </si>
   <si>
     <t>Dette brute des administrations publiques (millions de dollars US)</t>
@@ -2288,73 +2288,73 @@
     <t>PUBFINSOLAR</t>
   </si>
   <si>
-    <t>Public flows into solar power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers l'énergie solaire en millions de dollars US de 2020</t>
+    <t>Public flows into solar power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie solaire en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINWIND</t>
   </si>
   <si>
-    <t>Public flows into wind power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers l'énergie éolienne en millions de dollars US de 2020</t>
+    <t>Public flows into wind power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie éolienne en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINGEO</t>
   </si>
   <si>
-    <t>Public flows into geothermal energy in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers l'énergie géothermique en millions de dollars US de 2020</t>
+    <t>Public flows into geothermal energy in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'énergie géothermique en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINHYDRO</t>
   </si>
   <si>
-    <t>Public flows into renewable hydropower in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers l'hydroélectricité renouvelable en millions de dollars US de 2020</t>
+    <t>Public flows into renewable hydropower in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers l'hydroélectricité renouvelable en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINBIOF</t>
   </si>
   <si>
-    <t>Public flows into biofuels in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers les biocarburants en millions de dollars US de 2020</t>
+    <t>Public flows into biofuels in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les biocarburants en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINOTHREN</t>
   </si>
   <si>
-    <t>Public flows into renewable energy n.e.s. in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers les énergies renouvelables n.d.a. en millions de dollars US de 2020</t>
+    <t>Public flows into renewable energy n.e.s. in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les énergies renouvelables n.d.a. en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINNUCL</t>
   </si>
   <si>
-    <t>Public flows into nuclear power in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers le nucléaire en millions de dollars US de 2020</t>
+    <t>Public flows into nuclear power in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers le nucléaire en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>PUBFINFOSS</t>
   </si>
   <si>
-    <t>Public flows into fossil fuels in millions of 2020 USD</t>
-  </si>
-  <si>
-    <t>Flux publics vers les combustibles fossiles en millions de dollars US de 2020</t>
+    <t>Public flows into fossil fuels in millions of 2022 USD</t>
+  </si>
+  <si>
+    <t>Flux publics vers les combustibles fossiles en millions de dollars US de 2022</t>
   </si>
   <si>
     <t>ELECCAPSOLAR</t>
@@ -2828,181 +2828,181 @@
     <t>NatCapLD</t>
   </si>
   <si>
-    <t>National wealth, agricultural lands (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, terres agricoles (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, agricultural lands (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres agricoles (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapCO</t>
   </si>
   <si>
-    <t>National wealth, coal (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, charbon (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, coal (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, charbon (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapCL</t>
   </si>
   <si>
-    <t>National wealth, cropland (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, terres cultivées (en milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, cropland (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres cultivées (en milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapFS</t>
   </si>
   <si>
-    <t>National wealth, fisheries (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, pêche (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, fisheries (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pêche (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapFE</t>
   </si>
   <si>
-    <t>National wealth, forests - ecosystem services (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, forêts - services écosystémiques (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, forests - ecosystem services (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - services écosystémiques (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapFT</t>
   </si>
   <si>
-    <t>National wealth, forests - timber (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, forêts - bois (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, forests - timber (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - bois (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapEN</t>
   </si>
   <si>
-    <t>National wealth, fossil fuel energy (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, énergie fossile (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, fossil fuel energy (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, énergie fossile (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapHC</t>
   </si>
   <si>
-    <t>National wealth, human capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, capital humain (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, human capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital humain (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapMA</t>
   </si>
   <si>
-    <t>National wealth, mangroves (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, mangroves (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, mangroves (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, mangroves (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapMN</t>
   </si>
   <si>
-    <t>National wealth, metals and minerals (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, métaux et minéraux (en milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, metals and minerals (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, métaux et minéraux (en milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapNK</t>
   </si>
   <si>
-    <t>National wealth, natural capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, capital naturel (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, natural capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapSS</t>
   </si>
   <si>
-    <t>National wealth, natural capital - nonrenewable (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, capital naturel - non renouvelable (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, natural capital - nonrenewable (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - non renouvelable (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapRN</t>
   </si>
   <si>
-    <t>National wealth, natural capital - renewable (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, capital naturel - renouvelable (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, natural capital - renewable (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - renouvelable (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapGS</t>
   </si>
   <si>
-    <t>National wealth, natural gas (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, gaz naturel (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, natural gas (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, gaz naturel (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapFA</t>
   </si>
   <si>
-    <t>National wealth, net foreign assets (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, avoirs extérieurs nets (en milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, net foreign assets (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, avoirs extérieurs nets (en milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapOL</t>
   </si>
   <si>
-    <t>National wealth, oil (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, pétrole (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, oil (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pétrole (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapPS</t>
   </si>
   <si>
-    <t>National wealth, pastureland (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, pâturages (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, pastureland (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pâturages (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapPK</t>
   </si>
   <si>
-    <t>National wealth, produced capital (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, capital produit (en milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, produced capital (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital produit (en milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapPA</t>
   </si>
   <si>
-    <t>National wealth, protected areas (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, aires protégées (milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, protected areas (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, aires protégées (milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>NatCapTW</t>
   </si>
   <si>
-    <t>National wealth, total wealth (billions of constant 2018 international dollars)</t>
-  </si>
-  <si>
-    <t>Richesse nationale, richesse totale (en milliards de dollars internationaux constants de 2018)</t>
+    <t>National wealth, total wealth (billions of constant 2022 international dollars)</t>
+  </si>
+  <si>
+    <t>Richesse nationale, richesse totale (en milliards de dollars internationaux constants de 2022)</t>
   </si>
   <si>
     <t>ENVPDNMABPAR</t>
@@ -3659,22 +3659,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915B58B5-F462-4AB7-85DE-CCDC52838B85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E490AFC5-5A88-4053-B158-84321B8D4F25}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>138</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>150</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>156</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>171</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>174</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>177</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>180</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>198</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>210</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>213</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>216</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>219</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>228</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>234</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>237</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>240</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>246</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>249</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>252</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>255</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>258</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>261</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>264</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>267</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>270</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>273</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>276</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>279</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>282</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>288</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>291</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>294</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>297</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>300</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>303</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>306</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>308</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>311</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>314</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>323</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>329</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>332</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>335</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>338</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>341</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>344</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>347</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>350</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>353</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>356</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>359</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>362</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>365</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>368</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>371</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>374</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>377</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>380</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>383</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>386</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>389</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>392</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>395</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>398</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>401</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>404</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>407</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>410</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>413</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>416</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>419</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>422</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>425</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>428</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>431</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>434</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>437</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>440</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>443</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>446</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>449</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>452</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>455</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>458</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>464</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>467</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>470</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>473</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>476</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>479</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>482</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>485</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>488</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>491</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>494</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>497</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>500</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>503</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>506</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>509</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>512</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>515</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>518</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>521</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>524</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>527</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>512</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>530</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>533</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>536</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>539</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>542</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>545</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>548</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>551</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>554</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>557</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>560</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>563</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>566</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>569</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>572</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>575</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>578</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>581</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>584</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>587</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>590</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>593</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>596</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>599</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>602</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>605</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>608</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>611</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>614</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>617</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>620</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>623</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>626</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>629</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>632</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>635</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>638</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>641</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>647</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>650</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>653</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>656</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>659</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>662</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>665</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>668</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>671</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>674</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>677</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>680</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>683</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>686</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>689</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>692</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>695</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>698</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>701</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>704</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>707</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>710</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>713</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>716</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>719</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>722</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>725</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>728</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>731</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>734</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>737</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>740</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>743</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>746</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>749</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>752</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>755</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>758</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>761</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>764</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>767</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>770</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>773</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>776</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>779</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>782</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>785</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>788</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>791</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>794</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>797</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>800</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>803</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>806</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>809</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>812</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>815</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>818</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>821</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>824</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>827</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>830</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>833</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>836</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>839</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>842</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>845</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>848</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>851</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>854</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>857</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>860</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>863</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>866</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>869</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>872</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>875</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>878</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>881</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>884</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>887</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>890</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>893</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>896</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>899</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>902</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>905</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>908</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>911</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>914</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>917</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>920</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>923</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>926</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>929</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>932</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>935</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>938</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>941</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>944</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>947</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>950</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>953</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>956</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>959</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>962</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>965</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>968</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>971</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>974</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>977</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>980</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>983</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>986</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>989</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>992</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>995</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>998</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>1001</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1004</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1007</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1010</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>1013</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>1016</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1019</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1022</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>1025</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1028</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>1031</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>1034</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>1037</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>1040</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>1043</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>1046</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>1049</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>1052</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>1055</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>1058</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1061</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>1064</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>1067</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1070</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>1073</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1076</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>1079</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>1082</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>1085</v>
       </c>
